--- a/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2726522537492002</v>
+        <v>0.2726522537492713</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2771848800312711</v>
+        <v>0.2771848800311005</v>
       </c>
       <c r="E2">
-        <v>0.02928196160412266</v>
+        <v>0.02928196160407204</v>
       </c>
       <c r="F2">
         <v>6.831366163021869</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02719974476343889</v>
+        <v>0.02719974476348774</v>
       </c>
       <c r="J2">
-        <v>4.513672284930692</v>
+        <v>4.513672284930777</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -456,13 +456,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2327346907955246</v>
+        <v>0.2327346907957377</v>
       </c>
       <c r="E3">
         <v>0.02721758508158789</v>
       </c>
       <c r="F3">
-        <v>5.819620263572034</v>
+        <v>5.819620263572006</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02609574208129928</v>
+        <v>0.02609574208129661</v>
       </c>
       <c r="J3">
-        <v>3.829653293543117</v>
+        <v>3.829653293543146</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.356386746456337</v>
+        <v>2.356386746456323</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2159998984088531</v>
+        <v>0.21599989840864</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2073980886666931</v>
+        <v>0.207398088666821</v>
       </c>
       <c r="E4">
-        <v>0.02602803711557655</v>
+        <v>0.02602803711566803</v>
       </c>
       <c r="F4">
         <v>5.238323804512078</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02555643681268993</v>
+        <v>0.02555643681272812</v>
       </c>
       <c r="J4">
-        <v>3.427106553072747</v>
+        <v>3.427106553072718</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.108962257025922</v>
+        <v>2.108962257025951</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2073846369977446</v>
+        <v>0.2073846369979151</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1974692560147275</v>
+        <v>0.1974692560146849</v>
       </c>
       <c r="E5">
-        <v>0.02555792874446716</v>
+        <v>0.0255579287444796</v>
       </c>
       <c r="F5">
-        <v>5.0095925215482</v>
+        <v>5.009592521548228</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02536593877300408</v>
+        <v>0.02536593877294813</v>
       </c>
       <c r="J5">
-        <v>3.266538069133176</v>
+        <v>3.266538069133233</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.010324951602158</v>
+        <v>2.010324951602172</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2059583487918246</v>
+        <v>0.2059583487916399</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0.1958420765803197</v>
       </c>
       <c r="E6">
-        <v>0.02548063042941617</v>
+        <v>0.02548063042945081</v>
       </c>
       <c r="F6">
         <v>4.972056294513607</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02533593372783383</v>
+        <v>0.02533593372784626</v>
       </c>
       <c r="J6">
-        <v>3.24006237159935</v>
+        <v>3.240062371599322</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.994064371910952</v>
+        <v>1.994064371910937</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2158834161532468</v>
+        <v>0.2158834161532042</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2072626933544228</v>
+        <v>0.2072626933542381</v>
       </c>
       <c r="E7">
-        <v>0.02602164342440538</v>
+        <v>0.02602164342441782</v>
       </c>
       <c r="F7">
-        <v>5.235208259828482</v>
+        <v>5.235208259828511</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0255537556740153</v>
+        <v>0.02555375567397</v>
       </c>
       <c r="J7">
         <v>3.424928079239578</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2603894812472305</v>
+        <v>0.2603894812473868</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2613877137324749</v>
+        <v>0.2613877137328586</v>
       </c>
       <c r="E8">
-        <v>0.0285505333679188</v>
+        <v>0.02855053336794011</v>
       </c>
       <c r="F8">
-        <v>6.472959494125263</v>
+        <v>6.47295949412532</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02678656550943348</v>
+        <v>0.0267865655094699</v>
       </c>
       <c r="J8">
-        <v>4.273585215191474</v>
+        <v>4.273585215191389</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.629434418662925</v>
+        <v>2.629434418662939</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3512786340422878</v>
+        <v>0.3512786340421741</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3889324339247224</v>
+        <v>0.3889324339245377</v>
       </c>
       <c r="E9">
-        <v>0.03445592684175391</v>
+        <v>0.03445592684168641</v>
       </c>
       <c r="F9">
-        <v>9.331792586480134</v>
+        <v>9.331792586480077</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.03064507198290123</v>
+        <v>0.03064507198291722</v>
       </c>
       <c r="J9">
-        <v>6.132080690364546</v>
+        <v>6.132080690364489</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.773558265916179</v>
+        <v>3.773558265916165</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.421689802379575</v>
+        <v>0.4216898023796318</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5081738712583501</v>
+        <v>0.5081738712581227</v>
       </c>
       <c r="E10">
-        <v>0.04012974745733988</v>
+        <v>0.04012974745733366</v>
       </c>
       <c r="F10">
-        <v>11.93598143371719</v>
+        <v>11.93598143371725</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.03508324535094687</v>
+        <v>0.03508324535091489</v>
       </c>
       <c r="J10">
         <v>7.733481778298824</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.759116395020271</v>
+        <v>4.759116395020257</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4550156098534472</v>
+        <v>0.4550156098534615</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5731394414981992</v>
+        <v>0.5731394414981139</v>
       </c>
       <c r="E11">
-        <v>0.04334914191352901</v>
+        <v>0.04334914191353079</v>
       </c>
       <c r="F11">
-        <v>13.32828257631076</v>
+        <v>13.32828257631053</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0377516539294227</v>
+        <v>0.03775165392944047</v>
       </c>
       <c r="J11">
-        <v>8.56135665820878</v>
+        <v>8.561356658208695</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.267929909842394</v>
+        <v>5.267929909842366</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.467890907873624</v>
+        <v>0.4678909078735245</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0.6000930341047308</v>
       </c>
       <c r="E12">
-        <v>0.04471907579475598</v>
+        <v>0.04471907579475864</v>
       </c>
       <c r="F12">
-        <v>13.90055643509771</v>
+        <v>13.90055643509766</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.03890285945780825</v>
+        <v>0.03890285945784022</v>
       </c>
       <c r="J12">
-        <v>8.896604347241151</v>
+        <v>8.896604347241123</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4651050815739239</v>
+        <v>0.4651050815738245</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5941642671478746</v>
+        <v>0.594164267147903</v>
       </c>
       <c r="E13">
-        <v>0.04441587129888536</v>
+        <v>0.04441587129885605</v>
       </c>
       <c r="F13">
-        <v>13.77494696665383</v>
+        <v>13.77494696665394</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03864754405713278</v>
+        <v>0.03864754405708481</v>
       </c>
       <c r="J13">
         <v>8.823259860897224</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4560692110653548</v>
+        <v>0.4560692110653406</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.575303119616791</v>
+        <v>0.5753031196170184</v>
       </c>
       <c r="E14">
-        <v>0.04345832096932334</v>
+        <v>0.04345832096929048</v>
       </c>
       <c r="F14">
-        <v>13.37433730229498</v>
+        <v>13.37433730229492</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0.0378431539985673</v>
       </c>
       <c r="J14">
-        <v>8.588440836423842</v>
+        <v>8.588440836423786</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.284564112598176</v>
+        <v>5.284564112598147</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4505704570761395</v>
+        <v>0.4505704570760969</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5640898491411406</v>
+        <v>0.5640898491410837</v>
       </c>
       <c r="E15">
-        <v>0.04289394692013371</v>
+        <v>0.04289394692017456</v>
       </c>
       <c r="F15">
-        <v>13.13543874596456</v>
+        <v>13.13543874596468</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03737072102888739</v>
+        <v>0.03737072102888206</v>
       </c>
       <c r="J15">
         <v>8.447745220327391</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.198144605098733</v>
+        <v>5.198144605098719</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4195430934841085</v>
+        <v>0.4195430934840658</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5042021556062934</v>
+        <v>0.504202155606265</v>
       </c>
       <c r="E16">
-        <v>0.03993633985339873</v>
+        <v>0.03993633985337919</v>
       </c>
       <c r="F16">
-        <v>11.85026317995226</v>
+        <v>11.85026317995244</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.03492532181872399</v>
+        <v>0.03492532181870267</v>
       </c>
       <c r="J16">
-        <v>7.681914973770347</v>
+        <v>7.681914973770375</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.727403084915622</v>
+        <v>4.72740308491565</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4008799374635572</v>
+        <v>0.4008799374635146</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4706446552850707</v>
+        <v>0.4706446552850991</v>
       </c>
       <c r="E17">
-        <v>0.03831601526636152</v>
+        <v>0.0383160152664157</v>
       </c>
       <c r="F17">
-        <v>11.12323636535621</v>
+        <v>11.12323636535606</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.03361688353059122</v>
+        <v>0.03361688353059833</v>
       </c>
       <c r="J17">
         <v>7.241584239844116</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.456524599839824</v>
+        <v>4.456524599839852</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4522859253882956</v>
+        <v>0.4522859253881109</v>
       </c>
       <c r="E18">
-        <v>0.03743918869993568</v>
+        <v>0.03743918869993657</v>
       </c>
       <c r="F18">
-        <v>10.72337229645817</v>
+        <v>10.72337229645819</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.03292154538876702</v>
+        <v>0.03292154538879721</v>
       </c>
       <c r="J18">
-        <v>6.997062205204685</v>
+        <v>6.997062205204713</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.306050174419255</v>
+        <v>4.306050174419326</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3866851553845976</v>
+        <v>0.3866851553845265</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4462145292845321</v>
+        <v>0.4462145292843758</v>
       </c>
       <c r="E19">
-        <v>0.03715057628796359</v>
+        <v>0.03715057628797602</v>
       </c>
       <c r="F19">
-        <v>10.59080124321554</v>
+        <v>10.59080124321548</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0326949359853046</v>
+        <v>0.03269493598529571</v>
       </c>
       <c r="J19">
-        <v>6.915612549963697</v>
+        <v>6.915612549963726</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4028542141885367</v>
+        <v>0.4028542141885083</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4741150063624104</v>
+        <v>0.4741150063621546</v>
       </c>
       <c r="E20">
-        <v>0.03848249128429782</v>
+        <v>0.03848249128427206</v>
       </c>
       <c r="F20">
-        <v>11.19865353005602</v>
+        <v>11.19865353005622</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.03374999175395388</v>
+        <v>0.03374999175397697</v>
       </c>
       <c r="J20">
-        <v>7.28751302396509</v>
+        <v>7.287513023965147</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.484784571933659</v>
+        <v>4.484784571933716</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4587155840372645</v>
+        <v>0.4587155840371935</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5807699754262217</v>
+        <v>0.580769975426449</v>
       </c>
       <c r="E21">
-        <v>0.04373478252142249</v>
+        <v>0.04373478252143048</v>
       </c>
       <c r="F21">
-        <v>13.4906112024911</v>
+        <v>13.49061120249115</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0380750608013205</v>
+        <v>0.03807506080138801</v>
       </c>
       <c r="J21">
-        <v>8.656737746729391</v>
+        <v>8.656737746729419</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.326506069517947</v>
+        <v>5.32650606951799</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.496781794363315</v>
+        <v>0.4967817943634714</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6650961201187044</v>
+        <v>0.6650961201189602</v>
       </c>
       <c r="E22">
-        <v>0.04811834368794532</v>
+        <v>0.04811834368794443</v>
       </c>
       <c r="F22">
         <v>15.26783080074097</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.04177534154793072</v>
+        <v>0.04177534154793783</v>
       </c>
       <c r="J22">
-        <v>9.686639378174078</v>
+        <v>9.686639378174021</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.958239088171069</v>
+        <v>5.958239088171084</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4762875137859766</v>
+        <v>0.4762875137858771</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.618303811965859</v>
+        <v>0.6183038119659159</v>
       </c>
       <c r="E23">
-        <v>0.04565726554566396</v>
+        <v>0.04565726554565952</v>
       </c>
       <c r="F23">
-        <v>14.28543138745113</v>
+        <v>14.28543138745101</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.03969426191143555</v>
+        <v>0.0396942619115066</v>
       </c>
       <c r="J23">
-        <v>9.120516142257515</v>
+        <v>9.120516142257458</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.611166456694448</v>
+        <v>5.611166456694392</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4019613006578169</v>
+        <v>0.4019613006579021</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4725432037552366</v>
+        <v>0.4725432037554071</v>
       </c>
       <c r="E24">
-        <v>0.03840706073739053</v>
+        <v>0.03840706073738964</v>
       </c>
       <c r="F24">
-        <v>11.16450199011979</v>
+        <v>11.1645019901197</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.03368963933195879</v>
+        <v>0.03368963933201208</v>
       </c>
       <c r="J24">
-        <v>7.266722220850994</v>
+        <v>7.266722220851051</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.471992151702153</v>
+        <v>4.471992151702182</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.351136310574006</v>
+        <v>0.3511363105741907</v>
       </c>
       <c r="E25">
-        <v>0.03269936328366008</v>
+        <v>0.03269936328365031</v>
       </c>
       <c r="F25">
         <v>8.492769321123092</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.0293889475256659</v>
+        <v>0.02938894752568011</v>
       </c>
       <c r="J25">
-        <v>5.599040762930429</v>
+        <v>5.599040762930485</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.445341025587737</v>
+        <v>3.445341025587709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2726522537492713</v>
+        <v>0.2726522537492002</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2771848800311005</v>
+        <v>0.2771848800312711</v>
       </c>
       <c r="E2">
-        <v>0.02928196160407204</v>
+        <v>0.02928196160412266</v>
       </c>
       <c r="F2">
         <v>6.831366163021869</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02719974476348774</v>
+        <v>0.02719974476343889</v>
       </c>
       <c r="J2">
-        <v>4.513672284930777</v>
+        <v>4.513672284930692</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -456,13 +456,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2327346907957377</v>
+        <v>0.2327346907955246</v>
       </c>
       <c r="E3">
         <v>0.02721758508158789</v>
       </c>
       <c r="F3">
-        <v>5.819620263572006</v>
+        <v>5.819620263572034</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02609574208129661</v>
+        <v>0.02609574208129928</v>
       </c>
       <c r="J3">
-        <v>3.829653293543146</v>
+        <v>3.829653293543117</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.356386746456323</v>
+        <v>2.356386746456337</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.21599989840864</v>
+        <v>0.2159998984088531</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.207398088666821</v>
+        <v>0.2073980886666931</v>
       </c>
       <c r="E4">
-        <v>0.02602803711566803</v>
+        <v>0.02602803711557655</v>
       </c>
       <c r="F4">
         <v>5.238323804512078</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02555643681272812</v>
+        <v>0.02555643681268993</v>
       </c>
       <c r="J4">
-        <v>3.427106553072718</v>
+        <v>3.427106553072747</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.108962257025951</v>
+        <v>2.108962257025922</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2073846369979151</v>
+        <v>0.2073846369977446</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1974692560146849</v>
+        <v>0.1974692560147275</v>
       </c>
       <c r="E5">
-        <v>0.0255579287444796</v>
+        <v>0.02555792874446716</v>
       </c>
       <c r="F5">
-        <v>5.009592521548228</v>
+        <v>5.0095925215482</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02536593877294813</v>
+        <v>0.02536593877300408</v>
       </c>
       <c r="J5">
-        <v>3.266538069133233</v>
+        <v>3.266538069133176</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.010324951602172</v>
+        <v>2.010324951602158</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2059583487916399</v>
+        <v>0.2059583487918246</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0.1958420765803197</v>
       </c>
       <c r="E6">
-        <v>0.02548063042945081</v>
+        <v>0.02548063042941617</v>
       </c>
       <c r="F6">
         <v>4.972056294513607</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02533593372784626</v>
+        <v>0.02533593372783383</v>
       </c>
       <c r="J6">
-        <v>3.240062371599322</v>
+        <v>3.24006237159935</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.994064371910937</v>
+        <v>1.994064371910952</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2158834161532042</v>
+        <v>0.2158834161532468</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2072626933542381</v>
+        <v>0.2072626933544228</v>
       </c>
       <c r="E7">
-        <v>0.02602164342441782</v>
+        <v>0.02602164342440538</v>
       </c>
       <c r="F7">
-        <v>5.235208259828511</v>
+        <v>5.235208259828482</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02555375567397</v>
+        <v>0.0255537556740153</v>
       </c>
       <c r="J7">
         <v>3.424928079239578</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2603894812473868</v>
+        <v>0.2603894812472305</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2613877137328586</v>
+        <v>0.2613877137324749</v>
       </c>
       <c r="E8">
-        <v>0.02855053336794011</v>
+        <v>0.0285505333679188</v>
       </c>
       <c r="F8">
-        <v>6.47295949412532</v>
+        <v>6.472959494125263</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0267865655094699</v>
+        <v>0.02678656550943348</v>
       </c>
       <c r="J8">
-        <v>4.273585215191389</v>
+        <v>4.273585215191474</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.629434418662939</v>
+        <v>2.629434418662925</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3512786340421741</v>
+        <v>0.3512786340422878</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3889324339245377</v>
+        <v>0.3889324339247224</v>
       </c>
       <c r="E9">
-        <v>0.03445592684168641</v>
+        <v>0.03445592684175391</v>
       </c>
       <c r="F9">
-        <v>9.331792586480077</v>
+        <v>9.331792586480134</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.03064507198291722</v>
+        <v>0.03064507198290123</v>
       </c>
       <c r="J9">
-        <v>6.132080690364489</v>
+        <v>6.132080690364546</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.773558265916165</v>
+        <v>3.773558265916179</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4216898023796318</v>
+        <v>0.421689802379575</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5081738712581227</v>
+        <v>0.5081738712583501</v>
       </c>
       <c r="E10">
-        <v>0.04012974745733366</v>
+        <v>0.04012974745733988</v>
       </c>
       <c r="F10">
-        <v>11.93598143371725</v>
+        <v>11.93598143371719</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.03508324535091489</v>
+        <v>0.03508324535094687</v>
       </c>
       <c r="J10">
         <v>7.733481778298824</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.759116395020257</v>
+        <v>4.759116395020271</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4550156098534615</v>
+        <v>0.4550156098534472</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5731394414981139</v>
+        <v>0.5731394414981992</v>
       </c>
       <c r="E11">
-        <v>0.04334914191353079</v>
+        <v>0.04334914191352901</v>
       </c>
       <c r="F11">
-        <v>13.32828257631053</v>
+        <v>13.32828257631076</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03775165392944047</v>
+        <v>0.0377516539294227</v>
       </c>
       <c r="J11">
-        <v>8.561356658208695</v>
+        <v>8.56135665820878</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.267929909842366</v>
+        <v>5.267929909842394</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4678909078735245</v>
+        <v>0.467890907873624</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0.6000930341047308</v>
       </c>
       <c r="E12">
-        <v>0.04471907579475864</v>
+        <v>0.04471907579475598</v>
       </c>
       <c r="F12">
-        <v>13.90055643509766</v>
+        <v>13.90055643509771</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.03890285945784022</v>
+        <v>0.03890285945780825</v>
       </c>
       <c r="J12">
-        <v>8.896604347241123</v>
+        <v>8.896604347241151</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4651050815738245</v>
+        <v>0.4651050815739239</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.594164267147903</v>
+        <v>0.5941642671478746</v>
       </c>
       <c r="E13">
-        <v>0.04441587129885605</v>
+        <v>0.04441587129888536</v>
       </c>
       <c r="F13">
-        <v>13.77494696665394</v>
+        <v>13.77494696665383</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03864754405708481</v>
+        <v>0.03864754405713278</v>
       </c>
       <c r="J13">
         <v>8.823259860897224</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4560692110653406</v>
+        <v>0.4560692110653548</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5753031196170184</v>
+        <v>0.575303119616791</v>
       </c>
       <c r="E14">
-        <v>0.04345832096929048</v>
+        <v>0.04345832096932334</v>
       </c>
       <c r="F14">
-        <v>13.37433730229492</v>
+        <v>13.37433730229498</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0.0378431539985673</v>
       </c>
       <c r="J14">
-        <v>8.588440836423786</v>
+        <v>8.588440836423842</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.284564112598147</v>
+        <v>5.284564112598176</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4505704570760969</v>
+        <v>0.4505704570761395</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5640898491410837</v>
+        <v>0.5640898491411406</v>
       </c>
       <c r="E15">
-        <v>0.04289394692017456</v>
+        <v>0.04289394692013371</v>
       </c>
       <c r="F15">
-        <v>13.13543874596468</v>
+        <v>13.13543874596456</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03737072102888206</v>
+        <v>0.03737072102888739</v>
       </c>
       <c r="J15">
         <v>8.447745220327391</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.198144605098719</v>
+        <v>5.198144605098733</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4195430934840658</v>
+        <v>0.4195430934841085</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.504202155606265</v>
+        <v>0.5042021556062934</v>
       </c>
       <c r="E16">
-        <v>0.03993633985337919</v>
+        <v>0.03993633985339873</v>
       </c>
       <c r="F16">
-        <v>11.85026317995244</v>
+        <v>11.85026317995226</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.03492532181870267</v>
+        <v>0.03492532181872399</v>
       </c>
       <c r="J16">
-        <v>7.681914973770375</v>
+        <v>7.681914973770347</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.72740308491565</v>
+        <v>4.727403084915622</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4008799374635146</v>
+        <v>0.4008799374635572</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4706446552850991</v>
+        <v>0.4706446552850707</v>
       </c>
       <c r="E17">
-        <v>0.0383160152664157</v>
+        <v>0.03831601526636152</v>
       </c>
       <c r="F17">
-        <v>11.12323636535606</v>
+        <v>11.12323636535621</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.03361688353059833</v>
+        <v>0.03361688353059122</v>
       </c>
       <c r="J17">
         <v>7.241584239844116</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.456524599839852</v>
+        <v>4.456524599839824</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4522859253881109</v>
+        <v>0.4522859253882956</v>
       </c>
       <c r="E18">
-        <v>0.03743918869993657</v>
+        <v>0.03743918869993568</v>
       </c>
       <c r="F18">
-        <v>10.72337229645819</v>
+        <v>10.72337229645817</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.03292154538879721</v>
+        <v>0.03292154538876702</v>
       </c>
       <c r="J18">
-        <v>6.997062205204713</v>
+        <v>6.997062205204685</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.306050174419326</v>
+        <v>4.306050174419255</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3866851553845265</v>
+        <v>0.3866851553845976</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4462145292843758</v>
+        <v>0.4462145292845321</v>
       </c>
       <c r="E19">
-        <v>0.03715057628797602</v>
+        <v>0.03715057628796359</v>
       </c>
       <c r="F19">
-        <v>10.59080124321548</v>
+        <v>10.59080124321554</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.03269493598529571</v>
+        <v>0.0326949359853046</v>
       </c>
       <c r="J19">
-        <v>6.915612549963726</v>
+        <v>6.915612549963697</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4028542141885083</v>
+        <v>0.4028542141885367</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4741150063621546</v>
+        <v>0.4741150063624104</v>
       </c>
       <c r="E20">
-        <v>0.03848249128427206</v>
+        <v>0.03848249128429782</v>
       </c>
       <c r="F20">
-        <v>11.19865353005622</v>
+        <v>11.19865353005602</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.03374999175397697</v>
+        <v>0.03374999175395388</v>
       </c>
       <c r="J20">
-        <v>7.287513023965147</v>
+        <v>7.28751302396509</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.484784571933716</v>
+        <v>4.484784571933659</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4587155840371935</v>
+        <v>0.4587155840372645</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.580769975426449</v>
+        <v>0.5807699754262217</v>
       </c>
       <c r="E21">
-        <v>0.04373478252143048</v>
+        <v>0.04373478252142249</v>
       </c>
       <c r="F21">
-        <v>13.49061120249115</v>
+        <v>13.4906112024911</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.03807506080138801</v>
+        <v>0.0380750608013205</v>
       </c>
       <c r="J21">
-        <v>8.656737746729419</v>
+        <v>8.656737746729391</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.32650606951799</v>
+        <v>5.326506069517947</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4967817943634714</v>
+        <v>0.496781794363315</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6650961201189602</v>
+        <v>0.6650961201187044</v>
       </c>
       <c r="E22">
-        <v>0.04811834368794443</v>
+        <v>0.04811834368794532</v>
       </c>
       <c r="F22">
         <v>15.26783080074097</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.04177534154793783</v>
+        <v>0.04177534154793072</v>
       </c>
       <c r="J22">
-        <v>9.686639378174021</v>
+        <v>9.686639378174078</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.958239088171084</v>
+        <v>5.958239088171069</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4762875137858771</v>
+        <v>0.4762875137859766</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6183038119659159</v>
+        <v>0.618303811965859</v>
       </c>
       <c r="E23">
-        <v>0.04565726554565952</v>
+        <v>0.04565726554566396</v>
       </c>
       <c r="F23">
-        <v>14.28543138745101</v>
+        <v>14.28543138745113</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0396942619115066</v>
+        <v>0.03969426191143555</v>
       </c>
       <c r="J23">
-        <v>9.120516142257458</v>
+        <v>9.120516142257515</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.611166456694392</v>
+        <v>5.611166456694448</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4019613006579021</v>
+        <v>0.4019613006578169</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4725432037554071</v>
+        <v>0.4725432037552366</v>
       </c>
       <c r="E24">
-        <v>0.03840706073738964</v>
+        <v>0.03840706073739053</v>
       </c>
       <c r="F24">
-        <v>11.1645019901197</v>
+        <v>11.16450199011979</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.03368963933201208</v>
+        <v>0.03368963933195879</v>
       </c>
       <c r="J24">
-        <v>7.266722220851051</v>
+        <v>7.266722220850994</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.471992151702182</v>
+        <v>4.471992151702153</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3511363105741907</v>
+        <v>0.351136310574006</v>
       </c>
       <c r="E25">
-        <v>0.03269936328365031</v>
+        <v>0.03269936328366008</v>
       </c>
       <c r="F25">
         <v>8.492769321123092</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.02938894752568011</v>
+        <v>0.0293889475256659</v>
       </c>
       <c r="J25">
-        <v>5.599040762930485</v>
+        <v>5.599040762930429</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.445341025587709</v>
+        <v>3.445341025587737</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2726522537492002</v>
+        <v>0.2721891855433967</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2771848800312711</v>
+        <v>0.2741107476301465</v>
       </c>
       <c r="E2">
-        <v>0.02928196160412266</v>
+        <v>0.02609431562642239</v>
       </c>
       <c r="F2">
-        <v>6.831366163021869</v>
+        <v>6.790863311728117</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007070958923213902</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02719974476343889</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.513672284930692</v>
+        <v>0.02633139822441777</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.449358572662362</v>
       </c>
       <c r="L2">
-        <v>2.777166227417155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.745747225095812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2373293164594088</v>
+        <v>0.2369468908242567</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2327346907955246</v>
+        <v>0.2310467636588243</v>
       </c>
       <c r="E3">
-        <v>0.02721758508158789</v>
+        <v>0.02411697688375192</v>
       </c>
       <c r="F3">
-        <v>5.819620263572034</v>
+        <v>5.799697844250687</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007275837757469802</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02609574208129928</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.829653293543117</v>
+        <v>0.02522179847397421</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.77590170488827</v>
       </c>
       <c r="L3">
-        <v>2.356386746456337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.33081388059162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2159998984088531</v>
+        <v>0.2156640080078915</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2073980886666931</v>
+        <v>0.206514686151948</v>
       </c>
       <c r="E4">
-        <v>0.02602803711557655</v>
+        <v>0.02297521557791171</v>
       </c>
       <c r="F4">
-        <v>5.238323804512078</v>
+        <v>5.23020167576172</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007401423026557074</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02555643681268993</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3.427106553072747</v>
+        <v>0.02467534887604383</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.379461369080531</v>
       </c>
       <c r="L4">
-        <v>2.108962257025922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.086754465274524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2073846369977446</v>
+        <v>0.2070671470326459</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1974692560147275</v>
+        <v>0.1969055144695346</v>
       </c>
       <c r="E5">
-        <v>0.02555792874446716</v>
+        <v>0.0225234997166881</v>
       </c>
       <c r="F5">
-        <v>5.0095925215482</v>
+        <v>5.006128456710286</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007452730073844295</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02536593877300408</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>3.266538069133176</v>
+        <v>0.02448118048222891</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.221314655937178</v>
       </c>
       <c r="L5">
-        <v>2.010324951602158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1.98944848739221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2059583487918246</v>
+        <v>0.2056438846960731</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1958420765803197</v>
+        <v>0.1953310051589483</v>
       </c>
       <c r="E6">
-        <v>0.02548063042941617</v>
+        <v>0.02244919838317738</v>
       </c>
       <c r="F6">
-        <v>4.972056294513607</v>
+        <v>4.969358034906179</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007461262086471286</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02533593372783383</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3.24006237159935</v>
+        <v>0.02445052426840189</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.195237754110551</v>
       </c>
       <c r="L6">
-        <v>1.994064371910952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1.973406955339243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2158834161532468</v>
+        <v>0.2155477759775266</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2072626933544228</v>
+        <v>0.2063836310935727</v>
       </c>
       <c r="E7">
-        <v>0.02602164342440538</v>
+        <v>0.02296907392957515</v>
       </c>
       <c r="F7">
-        <v>5.235208259828482</v>
+        <v>5.22714949455451</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007402114228143743</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0255537556740153</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>3.424928079239578</v>
+        <v>0.0246726211183832</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.377315793939687</v>
       </c>
       <c r="L7">
-        <v>2.107623787858358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.085434094275811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2603894812472305</v>
+        <v>0.2599549674901453</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2613877137324749</v>
+        <v>0.2588036941547074</v>
       </c>
       <c r="E8">
-        <v>0.0285505333679188</v>
+        <v>0.02539431134798065</v>
       </c>
       <c r="F8">
-        <v>6.472959494125263</v>
+        <v>6.439768180109866</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007141768162613964</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02678656550943348</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.273585215191474</v>
+        <v>0.02591718131180976</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4.213012065924886</v>
       </c>
       <c r="L8">
-        <v>2.629434418662925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.600089352820788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3512786340422878</v>
+        <v>0.3506138456725552</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3889324339247224</v>
+        <v>0.3823932662498919</v>
       </c>
       <c r="E9">
-        <v>0.03445592684175391</v>
+        <v>0.03102803582026326</v>
       </c>
       <c r="F9">
-        <v>9.331792586480134</v>
+        <v>9.238578193799356</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006618463777475177</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.03064507198290123</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6.132080690364546</v>
+        <v>0.0297571055689545</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>6.041105900460963</v>
       </c>
       <c r="L9">
-        <v>3.773558265916179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.727258555658707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.421689802379575</v>
+        <v>0.4208019257347644</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5081738712583501</v>
+        <v>0.4977529279504438</v>
       </c>
       <c r="E10">
-        <v>0.04012974745733988</v>
+        <v>0.03640131102034339</v>
       </c>
       <c r="F10">
-        <v>11.93598143371719</v>
+        <v>11.78183133505235</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006203157817903248</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.03508324535094687</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7.733481778298824</v>
+        <v>0.03412477248692802</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>7.612135937841401</v>
       </c>
       <c r="L10">
-        <v>4.759116395020271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4.695693485177117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4550156098534472</v>
+        <v>0.4539981645959301</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5731394414981992</v>
+        <v>0.5604293126060611</v>
       </c>
       <c r="E11">
-        <v>0.04334914191352901</v>
+        <v>0.03943113060243153</v>
       </c>
       <c r="F11">
-        <v>13.32828257631076</v>
+        <v>13.13740878751997</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005998242574119208</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0377516539294227</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>8.56135665820878</v>
+        <v>0.03673191786535313</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>8.421837369652735</v>
       </c>
       <c r="L11">
-        <v>5.267929909842394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5.194193875885077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.467890907873624</v>
+        <v>0.4668172281531326</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6000930341047308</v>
+        <v>0.5863812992290889</v>
       </c>
       <c r="E12">
-        <v>0.04471907579475598</v>
+        <v>0.04071571854677813</v>
       </c>
       <c r="F12">
-        <v>13.90055643509771</v>
+        <v>13.69345570910957</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005916929883233206</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.03890285945780825</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>8.896604347241151</v>
+        <v>0.03785243105079594</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8.749073185833794</v>
       </c>
       <c r="L12">
-        <v>5.473766859027023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5.395471401214948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4651050815739239</v>
+        <v>0.4640439155949849</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5941642671478746</v>
+        <v>0.5806758286772435</v>
       </c>
       <c r="E13">
-        <v>0.04441587129888536</v>
+        <v>0.04043165775538071</v>
       </c>
       <c r="F13">
-        <v>13.77494696665383</v>
+        <v>13.57147167835075</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005934640276136899</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03864754405713278</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>8.823259860897224</v>
+        <v>0.03760414817918623</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.677517968765414</v>
       </c>
       <c r="L13">
-        <v>5.428746143002186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5.351469546307271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4560692110653548</v>
+        <v>0.455047311753674</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.575303119616791</v>
+        <v>0.562513833171522</v>
       </c>
       <c r="E14">
-        <v>0.04345832096932334</v>
+        <v>0.03953361469189076</v>
       </c>
       <c r="F14">
-        <v>13.37433730229498</v>
+        <v>13.18218443025398</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005991638866198952</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0378431539985673</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>8.588440836423842</v>
+        <v>0.03682107353352038</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.448289680630097</v>
       </c>
       <c r="L14">
-        <v>5.284564112598176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5.210468757946202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4505704570761395</v>
+        <v>0.4495715340811159</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5640898491411406</v>
+        <v>0.551708571383557</v>
       </c>
       <c r="E15">
-        <v>0.04289394692013371</v>
+        <v>0.03900365407052586</v>
       </c>
       <c r="F15">
-        <v>13.13543874596456</v>
+        <v>12.94987244116919</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006026010739039744</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03737072102888739</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>8.447745220327391</v>
+        <v>0.03636057030610473</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.310848511011756</v>
       </c>
       <c r="L15">
-        <v>5.198144605098733</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5.125899435258077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4195430934841085</v>
+        <v>0.4186629087668905</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5042021556062934</v>
+        <v>0.4939162829248858</v>
       </c>
       <c r="E16">
-        <v>0.03993633985339873</v>
+        <v>0.03621882919513641</v>
       </c>
       <c r="F16">
-        <v>11.85026317995226</v>
+        <v>11.69826295567992</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006216125258134006</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.03492532181872399</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>7.681914973770347</v>
+        <v>0.03397004506539858</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>7.561635346538424</v>
       </c>
       <c r="L16">
-        <v>4.727403084915622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.664583842471714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4008799374635572</v>
+        <v>0.4000638848550153</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4706446552850707</v>
+        <v>0.4614813666467796</v>
       </c>
       <c r="E17">
-        <v>0.03831601526636152</v>
+        <v>0.03468808689883929</v>
       </c>
       <c r="F17">
-        <v>11.12323636535621</v>
+        <v>10.98902547284447</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006327888051558479</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.03361688353059122</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>7.241584239844116</v>
+        <v>0.03268621411664796</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>7.13013956525711</v>
       </c>
       <c r="L17">
-        <v>4.456524599839824</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.398700941868753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3902618481019005</v>
+        <v>0.3894803063866732</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4522859253882956</v>
+        <v>0.4437241348878302</v>
       </c>
       <c r="E18">
-        <v>0.03743918869993568</v>
+        <v>0.03385831990101451</v>
       </c>
       <c r="F18">
-        <v>10.72337229645817</v>
+        <v>10.59863350332606</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006390781462694143</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.03292154538876702</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>6.997062205204685</v>
+        <v>0.03200256453658135</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6.890332044856308</v>
       </c>
       <c r="L18">
-        <v>4.306050174419255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.250887196098333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3866851553845976</v>
+        <v>0.3859149488969678</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4462145292845321</v>
+        <v>0.4378499206452915</v>
       </c>
       <c r="E19">
-        <v>0.03715057628796359</v>
+        <v>0.03358498495102147</v>
       </c>
       <c r="F19">
-        <v>10.59080124321554</v>
+        <v>10.46915818255397</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006411868247893733</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0326949359853046</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>6.915612549963697</v>
+        <v>0.0317795500942939</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>6.810424960155018</v>
       </c>
       <c r="L19">
-        <v>4.255920684060058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4.201627461444772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4028542141885367</v>
+        <v>0.4020315954325042</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4741150063624104</v>
+        <v>0.4648370727260271</v>
       </c>
       <c r="E20">
-        <v>0.03848249128429782</v>
+        <v>0.03484551715973794</v>
       </c>
       <c r="F20">
-        <v>11.19865353005602</v>
+        <v>11.06263244846195</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006316142226111792</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.03374999175395388</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>7.28751302396509</v>
+        <v>0.0328169734508954</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>7.175168234540195</v>
       </c>
       <c r="L20">
-        <v>4.484784571933659</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.426452513359436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4587155840372645</v>
+        <v>0.4576823856820909</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5807699754262217</v>
+        <v>0.5677797461860337</v>
       </c>
       <c r="E21">
-        <v>0.04373478252142249</v>
+        <v>0.0397930417172212</v>
       </c>
       <c r="F21">
-        <v>13.4906112024911</v>
+        <v>13.29520873859008</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.000597501380479315</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0380750608013205</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>8.656737746729391</v>
+        <v>0.03704696530194695</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>8.514981565146513</v>
       </c>
       <c r="L21">
-        <v>5.326506069517947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5.251497784856511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.496781794363315</v>
+        <v>0.495564673243436</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6650961201187044</v>
+        <v>0.6488088760590642</v>
       </c>
       <c r="E22">
-        <v>0.04811834368794532</v>
+        <v>0.04388976395949218</v>
       </c>
       <c r="F22">
-        <v>15.26783080074097</v>
+        <v>15.01861474813478</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005728875831198937</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.04177534154793072</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>9.686639378174078</v>
+        <v>0.04063659270480713</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>9.518345786389602</v>
       </c>
       <c r="L22">
-        <v>5.958239088171069</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>5.868097714449561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4762875137859766</v>
+        <v>0.4751748477586375</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.618303811965859</v>
+        <v>0.6038949273917069</v>
       </c>
       <c r="E23">
-        <v>0.04565726554566396</v>
+        <v>0.04159372737353451</v>
       </c>
       <c r="F23">
-        <v>14.28543138745113</v>
+        <v>14.06698392629727</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005863131088548139</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.03969426191143555</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>9.120516142257515</v>
+        <v>0.03862120495274546</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>8.967387400086864</v>
       </c>
       <c r="L23">
-        <v>5.611166456694448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5.529681402963391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4019613006578169</v>
+        <v>0.4011416576199736</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4725432037552366</v>
+        <v>0.4633172342878993</v>
       </c>
       <c r="E24">
-        <v>0.03840706073739053</v>
+        <v>0.0347741896830609</v>
       </c>
       <c r="F24">
-        <v>11.16450199011979</v>
+        <v>11.02930158633785</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006321456658038693</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.03368963933195879</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>7.266722220850994</v>
+        <v>0.03275769042464205</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>7.154785479768094</v>
       </c>
       <c r="L24">
-        <v>4.471992151702153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.413890582050556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.326180198153736</v>
+        <v>0.3255838992793656</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.351136310574006</v>
+        <v>0.3457762724173961</v>
       </c>
       <c r="E25">
-        <v>0.03269936328366008</v>
+        <v>0.02935655448836361</v>
       </c>
       <c r="F25">
-        <v>8.492769321123092</v>
+        <v>8.417684919776661</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006763268582625977</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.0293889475256659</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>5.599040762930429</v>
+        <v>0.02851269773080212</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>5.517183344846302</v>
       </c>
       <c r="L25">
-        <v>3.445341025587737</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.404148186280125</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2721891855433967</v>
+        <v>2.297099289917014</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2741107476301465</v>
+        <v>0.01240361180131444</v>
       </c>
       <c r="E2">
-        <v>0.02609431562642239</v>
+        <v>3.257135332531021</v>
       </c>
       <c r="F2">
-        <v>6.790863311728117</v>
+        <v>2.106968652133048</v>
       </c>
       <c r="G2">
-        <v>0.0007070958923213902</v>
+        <v>0.0007276768988339189</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02633139822441777</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.449358572662362</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.420798446919235</v>
       </c>
       <c r="M2">
-        <v>2.745747225095812</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.878210345551409</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.663970962252606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2369468908242567</v>
+        <v>2.007314523161824</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2310467636588243</v>
+        <v>0.01075272731027965</v>
       </c>
       <c r="E3">
-        <v>0.02411697688375192</v>
+        <v>2.849606588862144</v>
       </c>
       <c r="F3">
-        <v>5.799697844250687</v>
+        <v>1.811262714981922</v>
       </c>
       <c r="G3">
-        <v>0.0007275837757469802</v>
+        <v>0.0007403469616126257</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02522179847397421</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3.77590170488827</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.226604152479524</v>
       </c>
       <c r="M3">
-        <v>2.33081388059162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7614308497927382</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.430343690787595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2156640080078915</v>
+        <v>1.832216399097973</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.206514686151948</v>
+        <v>0.01012548611461028</v>
       </c>
       <c r="E4">
-        <v>0.02297521557791171</v>
+        <v>2.602516160998832</v>
       </c>
       <c r="F4">
-        <v>5.23020167576172</v>
+        <v>1.640377688619708</v>
       </c>
       <c r="G4">
-        <v>0.0007401423026557074</v>
+        <v>0.0007482528161932196</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02467534887604383</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.379461369080531</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.109079012648863</v>
       </c>
       <c r="M4">
-        <v>2.086754465274524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.690793061113844</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.296009374823356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2070671470326459</v>
+        <v>1.761464491018131</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1969055144695346</v>
+        <v>0.009954507381536359</v>
       </c>
       <c r="E5">
-        <v>0.0225234997166881</v>
+        <v>2.50244821180523</v>
       </c>
       <c r="F5">
-        <v>5.006128456710286</v>
+        <v>1.573060522513885</v>
       </c>
       <c r="G5">
-        <v>0.0007452730073844295</v>
+        <v>0.0007515112045157918</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02448118048222891</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3.221314655937178</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.061536182507325</v>
       </c>
       <c r="M5">
-        <v>1.98944848739221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.6622294054761753</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.243248725114839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2056438846960731</v>
+        <v>1.749749569366969</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1953310051589483</v>
+        <v>0.009930893441637778</v>
       </c>
       <c r="E6">
-        <v>0.02244919838317738</v>
+        <v>2.485865259957549</v>
       </c>
       <c r="F6">
-        <v>4.969358034906179</v>
+        <v>1.562012852271849</v>
       </c>
       <c r="G6">
-        <v>0.0007461262086471286</v>
+        <v>0.0007520546053851882</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02445052426840189</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3.195237754110551</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.053660675753605</v>
       </c>
       <c r="M6">
-        <v>1.973406955339243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6574985838448129</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.234599222411617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2155477759775266</v>
+        <v>1.831259912945455</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2063836310935727</v>
+        <v>0.01012285290759962</v>
       </c>
       <c r="E7">
-        <v>0.02296907392957515</v>
+        <v>2.601164287065487</v>
       </c>
       <c r="F7">
-        <v>5.22714949455451</v>
+        <v>1.639460882372362</v>
       </c>
       <c r="G7">
-        <v>0.0007402114228143743</v>
+        <v>0.000748296605343398</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0246726211183832</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>3.377315793939687</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.108436517257417</v>
       </c>
       <c r="M7">
-        <v>2.085434094275811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6904070005245018</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.295290183741415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2599549674901453</v>
+        <v>2.196523720013715</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2588036941547074</v>
+        <v>0.01174606567456138</v>
       </c>
       <c r="E8">
-        <v>0.02539431134798065</v>
+        <v>3.115862460967634</v>
       </c>
       <c r="F8">
-        <v>6.439768180109866</v>
+        <v>2.002557158908687</v>
       </c>
       <c r="G8">
-        <v>0.0007141768162613964</v>
+        <v>0.0007320224627742468</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02591718131180976</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>4.213012065924886</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.353433339321924</v>
       </c>
       <c r="M8">
-        <v>2.600089352820788</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.8376941518433654</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.581324912996934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3506138456725552</v>
+        <v>2.94100996597075</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3823932662498919</v>
+        <v>0.01867304941166026</v>
       </c>
       <c r="E9">
-        <v>0.03102803582026326</v>
+        <v>4.158925968682979</v>
       </c>
       <c r="F9">
-        <v>9.238578193799356</v>
+        <v>2.818821751949969</v>
       </c>
       <c r="G9">
-        <v>0.0006618463777475177</v>
+        <v>0.000700850787234919</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0297571055689545</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>6.041105900460963</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.851717953550235</v>
       </c>
       <c r="M9">
-        <v>3.727258555658707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.137400041827064</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.231097368668586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4208019257347644</v>
+        <v>3.514689469830444</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4977529279504438</v>
+        <v>0.02722262279534604</v>
       </c>
       <c r="E10">
-        <v>0.03640131102034339</v>
+        <v>4.961090139898346</v>
       </c>
       <c r="F10">
-        <v>11.78183133505235</v>
+        <v>3.515362050395794</v>
       </c>
       <c r="G10">
-        <v>0.0006203157817903248</v>
+        <v>0.000677957596988743</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03412477248692802</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>7.612135937841401</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2.23587869635864</v>
       </c>
       <c r="M10">
-        <v>4.695693485177117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.368270483363759</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.790933595963182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4539981645959301</v>
+        <v>3.784140082003034</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5604293126060611</v>
+        <v>0.03221951133887657</v>
       </c>
       <c r="E11">
-        <v>0.03943113060243153</v>
+        <v>5.338297632696111</v>
       </c>
       <c r="F11">
-        <v>13.13740878751997</v>
+        <v>3.863081598002594</v>
       </c>
       <c r="G11">
-        <v>0.0005998242574119208</v>
+        <v>0.0006674148110988548</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03673191786535313</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>8.421837369652735</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.416633664435693</v>
       </c>
       <c r="M11">
-        <v>5.194193875885077</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.476766662299951</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>3.071874620305621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4668172281531326</v>
+        <v>3.887673003648786</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5863812992290889</v>
+        <v>0.03431094180212568</v>
       </c>
       <c r="E12">
-        <v>0.04071571854677813</v>
+        <v>5.4833972678191</v>
       </c>
       <c r="F12">
-        <v>13.69345570910957</v>
+        <v>4.000270381016549</v>
       </c>
       <c r="G12">
-        <v>0.0005916929883233206</v>
+        <v>0.0006633898622011002</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03785243105079594</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>8.749073185833794</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.486164226058719</v>
       </c>
       <c r="M12">
-        <v>5.395471401214948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.51847210948614</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>3.18295618487798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4640439155949849</v>
+        <v>3.865303639560068</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5806758286772435</v>
+        <v>0.0338508993478861</v>
       </c>
       <c r="E13">
-        <v>0.04043165775538071</v>
+        <v>5.452037809313168</v>
       </c>
       <c r="F13">
-        <v>13.57147167835075</v>
+        <v>3.970458882958752</v>
       </c>
       <c r="G13">
-        <v>0.0005934640276136899</v>
+        <v>0.0006642584220023747</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03760414817918623</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>8.677517968765414</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2.471137366542223</v>
       </c>
       <c r="M13">
-        <v>5.351469546307271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.509460285629203</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>3.158806769197625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.455047311753674</v>
+        <v>3.792625971136886</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.562513833171522</v>
+        <v>0.03238731398700878</v>
       </c>
       <c r="E14">
-        <v>0.03953361469189076</v>
+        <v>5.350186529082265</v>
       </c>
       <c r="F14">
-        <v>13.18218443025398</v>
+        <v>3.874250514490427</v>
       </c>
       <c r="G14">
-        <v>0.0005991638866198952</v>
+        <v>0.000667084423683584</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03682107353352038</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>8.448289680630097</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2.422330845252645</v>
       </c>
       <c r="M14">
-        <v>5.210468757946202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.48018457260325</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>3.080913162841142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4495715340811159</v>
+        <v>3.748313133697252</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.551708571383557</v>
+        <v>0.03151814021238053</v>
       </c>
       <c r="E15">
-        <v>0.03900365407052586</v>
+        <v>5.288110586746882</v>
       </c>
       <c r="F15">
-        <v>12.94987244116919</v>
+        <v>3.816074964999757</v>
       </c>
       <c r="G15">
-        <v>0.0006026010739039744</v>
+        <v>0.0006688107025758991</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03636057030610473</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>8.310848511011756</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2.392583823715569</v>
       </c>
       <c r="M15">
-        <v>5.125899435258077</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.46233718511921</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>3.033843786831994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4186629087668905</v>
+        <v>3.497273384657433</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4939162829248858</v>
+        <v>0.02692153111199858</v>
       </c>
       <c r="E16">
-        <v>0.03621882919513641</v>
+        <v>4.936725487949502</v>
       </c>
       <c r="F16">
-        <v>11.69826295567992</v>
+        <v>3.493344867595312</v>
       </c>
       <c r="G16">
-        <v>0.0006216125258134006</v>
+        <v>0.0006786428746176282</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03397004506539858</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>7.561635346538424</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.224204332649265</v>
       </c>
       <c r="M16">
-        <v>4.664583842471714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.361259626603626</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.773175392314343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4000638848550153</v>
+        <v>3.345621351684485</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4614813666467796</v>
+        <v>0.02441062083274304</v>
       </c>
       <c r="E17">
-        <v>0.03468808689883929</v>
+        <v>4.724625322872328</v>
       </c>
       <c r="F17">
-        <v>10.98902547284447</v>
+        <v>3.30395114709242</v>
       </c>
       <c r="G17">
-        <v>0.0006327888051558479</v>
+        <v>0.0006846326401437628</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03268621411664796</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>7.13013956525711</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2.122586939320712</v>
       </c>
       <c r="M17">
-        <v>4.398700941868753</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.300219315284309</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.620576681081815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3894803063866732</v>
+        <v>3.259173772124257</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4437241348878302</v>
+        <v>0.02306775813044837</v>
       </c>
       <c r="E18">
-        <v>0.03385831990101451</v>
+        <v>4.603753181237948</v>
       </c>
       <c r="F18">
-        <v>10.59863350332606</v>
+        <v>3.197843845346938</v>
       </c>
       <c r="G18">
-        <v>0.0006390781462694143</v>
+        <v>0.0006880667119712108</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03200256453658135</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>6.890332044856308</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2.064688221719479</v>
       </c>
       <c r="M18">
-        <v>4.250887196098333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.265428776154778</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.535212213608958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3859149488969678</v>
+        <v>3.230030272357169</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4378499206452915</v>
+        <v>0.02262944165167369</v>
       </c>
       <c r="E19">
-        <v>0.03358498495102147</v>
+        <v>4.563007626192331</v>
       </c>
       <c r="F19">
-        <v>10.46915818255397</v>
+        <v>3.162374600852672</v>
       </c>
       <c r="G19">
-        <v>0.0006411868247893733</v>
+        <v>0.0006892279031904142</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0317795500942939</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>6.810424960155018</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2.045173060337561</v>
       </c>
       <c r="M19">
-        <v>4.201627461444772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.253700677882918</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.50669814170837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4020315954325042</v>
+        <v>3.361682547422845</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4648370727260271</v>
+        <v>0.02466716627017362</v>
       </c>
       <c r="E20">
-        <v>0.03484551715973794</v>
+        <v>4.747084419633296</v>
       </c>
       <c r="F20">
-        <v>11.06263244846195</v>
+        <v>3.323812883717352</v>
       </c>
       <c r="G20">
-        <v>0.0006316142226111792</v>
+        <v>0.0006839962580463017</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0328169734508954</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>7.175168234540195</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>2.133346035001011</v>
       </c>
       <c r="M20">
-        <v>4.426452513359436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.306683430355051</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.636566099593381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4576823856820909</v>
+        <v>3.813929997315427</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5677797461860337</v>
+        <v>0.03281142480471999</v>
       </c>
       <c r="E21">
-        <v>0.0397930417172212</v>
+        <v>5.380036867592196</v>
       </c>
       <c r="F21">
-        <v>13.29520873859008</v>
+        <v>3.902349605884979</v>
       </c>
       <c r="G21">
-        <v>0.000597501380479315</v>
+        <v>0.0006662553744685818</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03704696530194695</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>8.514981565146513</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>2.436635113298223</v>
       </c>
       <c r="M21">
-        <v>5.251497784856511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.488765624657631</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>3.103656478894038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.495564673243436</v>
+        <v>4.118406443403387</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6488088760590642</v>
+        <v>0.03932263176205453</v>
       </c>
       <c r="E22">
-        <v>0.04388976395949218</v>
+        <v>5.807203718386035</v>
       </c>
       <c r="F22">
-        <v>15.01861474813478</v>
+        <v>4.313321519117267</v>
       </c>
       <c r="G22">
-        <v>0.0005728875831198937</v>
+        <v>0.000654461117364341</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04063659270480713</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>9.518345786389602</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>2.641304731654827</v>
       </c>
       <c r="M22">
-        <v>5.868097714449561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.611459949462414</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3.436908691573223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4751748477586375</v>
+        <v>3.954978127172808</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6038949273917069</v>
+        <v>0.03572246396206324</v>
       </c>
       <c r="E23">
-        <v>0.04159372737353451</v>
+        <v>5.577784863897676</v>
       </c>
       <c r="F23">
-        <v>14.06698392629727</v>
+        <v>4.090537700576192</v>
       </c>
       <c r="G23">
-        <v>0.0005863131088548139</v>
+        <v>0.0006607798666293778</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03862120495274546</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>8.967387400086864</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2.531391303796369</v>
       </c>
       <c r="M23">
-        <v>5.529681402963391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.545590237409456</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3.256115950131729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4011416576199736</v>
+        <v>3.354418998599726</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4633172342878993</v>
+        <v>0.02455087130224953</v>
       </c>
       <c r="E24">
-        <v>0.0347741896830609</v>
+        <v>4.736927373620233</v>
       </c>
       <c r="F24">
-        <v>11.02930158633785</v>
+        <v>3.314824818237526</v>
       </c>
       <c r="G24">
-        <v>0.0006321456658038693</v>
+        <v>0.0006842839949818454</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03275769042464205</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>7.154785479768094</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2.128480236355017</v>
       </c>
       <c r="M24">
-        <v>4.413890582050556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.303760070947831</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.629329978155539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3255838992793656</v>
+        <v>2.73569915592077</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3457762724173961</v>
+        <v>0.01629162682018759</v>
       </c>
       <c r="E25">
-        <v>0.02935655448836361</v>
+        <v>3.871742302058266</v>
       </c>
       <c r="F25">
-        <v>8.417684919776661</v>
+        <v>2.583794987100617</v>
       </c>
       <c r="G25">
-        <v>0.0006763268582625977</v>
+        <v>0.0007092448622134387</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02851269773080212</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>5.517183344846302</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.714343119232325</v>
       </c>
       <c r="M25">
-        <v>3.404148186280125</v>
+        <v>1.054781264154215</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.043217218511131</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.297099289917014</v>
+        <v>0.2690799185849642</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01240361180131444</v>
+        <v>0.06634598779137946</v>
       </c>
       <c r="E2">
-        <v>3.257135332531021</v>
+        <v>0.06938724432845333</v>
       </c>
       <c r="F2">
-        <v>2.106968652133048</v>
+        <v>1.255743094155378</v>
       </c>
       <c r="G2">
-        <v>0.0007276768988339189</v>
+        <v>0.9788826283973862</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6433951842945618</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08922966994638415</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.088278079827347</v>
       </c>
       <c r="L2">
-        <v>1.420798446919235</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.878210345551409</v>
+        <v>0.5168132439734165</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.002093691293231</v>
       </c>
       <c r="O2">
-        <v>1.663970962252606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.007314523161824</v>
+        <v>0.2352517451054155</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01075272731027965</v>
+        <v>0.06018997573848139</v>
       </c>
       <c r="E3">
-        <v>2.849606588862144</v>
+        <v>0.06503371506705236</v>
       </c>
       <c r="F3">
-        <v>1.811262714981922</v>
+        <v>1.183334585512654</v>
       </c>
       <c r="G3">
-        <v>0.0007403469616126257</v>
+        <v>0.915108389396849</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6215913044969597</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08544950276885288</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.808880950240393</v>
       </c>
       <c r="L3">
-        <v>1.226604152479524</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7614308497927382</v>
+        <v>0.450668140607938</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.055065404623084</v>
       </c>
       <c r="O3">
-        <v>1.430343690787595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.832216399097973</v>
+        <v>0.2146451270508578</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01012548611461028</v>
+        <v>0.05645556572273591</v>
       </c>
       <c r="E4">
-        <v>2.602516160998832</v>
+        <v>0.06244391255902215</v>
       </c>
       <c r="F4">
-        <v>1.640377688619708</v>
+        <v>1.141173899404421</v>
       </c>
       <c r="G4">
-        <v>0.0007482528161932196</v>
+        <v>0.8779681850077594</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.6093530388519497</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08326847504825707</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.638528897214485</v>
       </c>
       <c r="L4">
-        <v>1.109079012648863</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.690793061113844</v>
+        <v>0.4104589677796184</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.08898624831612</v>
       </c>
       <c r="O4">
-        <v>1.296009374823356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.761464491018131</v>
+        <v>0.2062849929407662</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.009954507381536359</v>
+        <v>0.05494438003012192</v>
       </c>
       <c r="E5">
-        <v>2.50244821180523</v>
+        <v>0.06140831751474352</v>
       </c>
       <c r="F5">
-        <v>1.573060522513885</v>
+        <v>1.124534642999251</v>
       </c>
       <c r="G5">
-        <v>0.0007515112045157918</v>
+        <v>0.8633059630605118</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6046390650331546</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.08241300453240541</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.569362279950184</v>
       </c>
       <c r="L5">
-        <v>1.061536182507325</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6622294054761753</v>
+        <v>0.3941628542774538</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.103151398145783</v>
       </c>
       <c r="O5">
-        <v>1.243248725114839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.749749569366969</v>
+        <v>0.2048989341883782</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009930893441637778</v>
+        <v>0.05469406756390782</v>
       </c>
       <c r="E6">
-        <v>2.485865259957549</v>
+        <v>0.06123751887922779</v>
       </c>
       <c r="F6">
-        <v>1.562012852271849</v>
+        <v>1.121803393842015</v>
       </c>
       <c r="G6">
-        <v>0.0007520546053851882</v>
+        <v>0.8608988914082829</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6038723710988592</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08227291332961428</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.557891158686715</v>
       </c>
       <c r="L6">
-        <v>1.053660675753605</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6574985838448129</v>
+        <v>0.3914619579654257</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.105523923734825</v>
       </c>
       <c r="O6">
-        <v>1.234599222411617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.831259912945455</v>
+        <v>0.214532233772843</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01012285290759962</v>
+        <v>0.05643514337940303</v>
       </c>
       <c r="E7">
-        <v>2.601164287065487</v>
+        <v>0.06242986761061786</v>
       </c>
       <c r="F7">
-        <v>1.639460882372362</v>
+        <v>1.140947350296656</v>
       </c>
       <c r="G7">
-        <v>0.000748296605343398</v>
+        <v>0.8777685753443194</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6092883784877188</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08325680539636338</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.637595128234324</v>
       </c>
       <c r="L7">
-        <v>1.108436517257417</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6904070005245018</v>
+        <v>0.4102388460603166</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.089175910589063</v>
       </c>
       <c r="O7">
-        <v>1.295290183741415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.196523720013715</v>
+        <v>0.257379433891316</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01174606567456138</v>
+        <v>0.06421347084418016</v>
       </c>
       <c r="E8">
-        <v>3.115862460967634</v>
+        <v>0.06786813431975958</v>
       </c>
       <c r="F8">
-        <v>2.002557158908687</v>
+        <v>1.230276979406185</v>
       </c>
       <c r="G8">
-        <v>0.0007320224627742468</v>
+        <v>0.9564530506229687</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.6356288190965955</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08789603486383868</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.991663011921872</v>
       </c>
       <c r="L8">
-        <v>1.353433339321924</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8376941518433654</v>
+        <v>0.4939149278075305</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.020063087223319</v>
       </c>
       <c r="O8">
-        <v>1.581324912996934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.94100996597075</v>
+        <v>0.3428993599409864</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01867304941166026</v>
+        <v>0.07986659128069107</v>
       </c>
       <c r="E9">
-        <v>4.158925968682979</v>
+        <v>0.07925036488114401</v>
       </c>
       <c r="F9">
-        <v>2.818821751949969</v>
+        <v>1.425457085008958</v>
       </c>
       <c r="G9">
-        <v>0.000700850787234919</v>
+        <v>1.128440629279311</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6971703357650796</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.09819616612586657</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.697876376224741</v>
       </c>
       <c r="L9">
-        <v>1.851717953550235</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.137400041827064</v>
+        <v>0.6618086449091507</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.8960341485045689</v>
       </c>
       <c r="O9">
-        <v>2.231097368668586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.514689469830444</v>
+        <v>0.4069366725482979</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02722262279534604</v>
+        <v>0.09167112559990898</v>
       </c>
       <c r="E10">
-        <v>4.961090139898346</v>
+        <v>0.08813642275973521</v>
       </c>
       <c r="F10">
-        <v>3.515362050395794</v>
+        <v>1.583716981589546</v>
       </c>
       <c r="G10">
-        <v>0.000677957596988743</v>
+        <v>1.268116175048334</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7495711618690564</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1066347717881584</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.227600916339554</v>
       </c>
       <c r="L10">
-        <v>2.23587869635864</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.368270483363759</v>
+        <v>0.7883899422833736</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.8125499999761985</v>
       </c>
       <c r="O10">
-        <v>2.790933595963182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.784140082003034</v>
+        <v>0.4364007128723699</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03221951133887657</v>
+        <v>0.09712212228335204</v>
       </c>
       <c r="E11">
-        <v>5.338297632696111</v>
+        <v>0.09231347754647956</v>
       </c>
       <c r="F11">
-        <v>3.863081598002594</v>
+        <v>1.659592061494834</v>
       </c>
       <c r="G11">
-        <v>0.0006674148110988548</v>
+        <v>1.335169665968778</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.7752537547161751</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1106964600347666</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.471837628377216</v>
       </c>
       <c r="L11">
-        <v>2.416633664435693</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.476766662299951</v>
+        <v>0.8468995142041535</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.7763826110637488</v>
       </c>
       <c r="O11">
-        <v>3.071874620305621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.887673003648786</v>
+        <v>0.4476120249692599</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03431094180212568</v>
+        <v>0.09919925364246041</v>
       </c>
       <c r="E12">
-        <v>5.4833972678191</v>
+        <v>0.09391648482644399</v>
       </c>
       <c r="F12">
-        <v>4.000270381016549</v>
+        <v>1.688941867651195</v>
       </c>
       <c r="G12">
-        <v>0.0006633898622011002</v>
+        <v>1.361123319300589</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.7852704790228699</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1122696366566842</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.564874060079489</v>
       </c>
       <c r="L12">
-        <v>2.486164226058719</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.51847210948614</v>
+        <v>0.8692091799744048</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.7629614396729352</v>
       </c>
       <c r="O12">
-        <v>3.18295618487798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.865303639560068</v>
+        <v>0.4451949698097906</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0338508993478861</v>
+        <v>0.09875130800026</v>
       </c>
       <c r="E13">
-        <v>5.452037809313168</v>
+        <v>0.09357027201246382</v>
       </c>
       <c r="F13">
-        <v>3.970458882958752</v>
+        <v>1.682592392129578</v>
       </c>
       <c r="G13">
-        <v>0.0006642584220023747</v>
+        <v>1.355507785518427</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7830998042817612</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1119292122661335</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.544811211482454</v>
       </c>
       <c r="L13">
-        <v>2.471137366542223</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.509460285629203</v>
+        <v>0.8643972343070629</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.7658394726185236</v>
       </c>
       <c r="O13">
-        <v>3.158806769197625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.792625971136886</v>
+        <v>0.4373219576442153</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03238731398700878</v>
+        <v>0.09729274158164003</v>
       </c>
       <c r="E14">
-        <v>5.350186529082265</v>
+        <v>0.09244492079671573</v>
       </c>
       <c r="F14">
-        <v>3.874250514490427</v>
+        <v>1.661993951531812</v>
       </c>
       <c r="G14">
-        <v>0.000667084423683584</v>
+        <v>1.337293283526947</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7760718416855923</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1108251642794684</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.479480296591362</v>
       </c>
       <c r="L14">
-        <v>2.422330845252645</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.48018457260325</v>
+        <v>0.8487317487906623</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.7752728524455001</v>
       </c>
       <c r="O14">
-        <v>3.080913162841142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.748313133697252</v>
+        <v>0.432506718145774</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03151814021238053</v>
+        <v>0.09640105553759781</v>
       </c>
       <c r="E15">
-        <v>5.288110586746882</v>
+        <v>0.09175843599982514</v>
       </c>
       <c r="F15">
-        <v>3.816074964999757</v>
+        <v>1.649459090458365</v>
       </c>
       <c r="G15">
-        <v>0.0006688107025758991</v>
+        <v>1.3262113261965</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7718057564503908</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1101535695446998</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3.439537267701155</v>
       </c>
       <c r="L15">
-        <v>2.392583823715569</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.46233718511921</v>
+        <v>0.8391567852921824</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.7810872828446946</v>
       </c>
       <c r="O15">
-        <v>3.033843786831994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.497273384657433</v>
+        <v>0.4050183362729314</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02692153111199858</v>
+        <v>0.09131662986743549</v>
       </c>
       <c r="E16">
-        <v>4.936725487949502</v>
+        <v>0.08786631013597912</v>
       </c>
       <c r="F16">
-        <v>3.493344867595312</v>
+        <v>1.578841432014116</v>
       </c>
       <c r="G16">
-        <v>0.0006786428746176282</v>
+        <v>1.263809510702743</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7479320383772006</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1063740711647725</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.211711802126729</v>
       </c>
       <c r="L16">
-        <v>2.224204332649265</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.361259626603626</v>
+        <v>0.7845865316460774</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.8149512450961254</v>
       </c>
       <c r="O16">
-        <v>2.773175392314343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.345621351684485</v>
+        <v>0.3882445760450111</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02441062083274304</v>
+        <v>0.0882191503281291</v>
       </c>
       <c r="E17">
-        <v>4.724625322872328</v>
+        <v>0.08551440991114134</v>
       </c>
       <c r="F17">
-        <v>3.30395114709242</v>
+        <v>1.53655459543775</v>
       </c>
       <c r="G17">
-        <v>0.0006846326401437628</v>
+        <v>1.226466803944817</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7337766115923898</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1041146531693187</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.07283853447953</v>
       </c>
       <c r="L17">
-        <v>2.122586939320712</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.300219315284309</v>
+        <v>0.751360594278708</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.8361991049405155</v>
       </c>
       <c r="O17">
-        <v>2.620576681081815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.259173772124257</v>
+        <v>0.3786277253800421</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02306775813044837</v>
+        <v>0.086445106869391</v>
       </c>
       <c r="E18">
-        <v>4.603753181237948</v>
+        <v>0.08417422060041702</v>
       </c>
       <c r="F18">
-        <v>3.197843845346938</v>
+        <v>1.512593847903801</v>
       </c>
       <c r="G18">
-        <v>0.0006880667119712108</v>
+        <v>1.205315377998659</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7258067753531634</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1028358808448218</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.99326414690367</v>
       </c>
       <c r="L18">
-        <v>2.064688221719479</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.265428776154778</v>
+        <v>0.7323358730852334</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.8485897453962252</v>
       </c>
       <c r="O18">
-        <v>2.535212213608958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.230030272357169</v>
+        <v>0.37537676824914</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02262944165167369</v>
+        <v>0.08584570424066129</v>
       </c>
       <c r="E19">
-        <v>4.563007626192331</v>
+        <v>0.08372255851688593</v>
       </c>
       <c r="F19">
-        <v>3.162374600852672</v>
+        <v>1.504541519893749</v>
       </c>
       <c r="G19">
-        <v>0.0006892279031904142</v>
+        <v>1.198208408857056</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7231371128409023</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1024063918109164</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.966371146739021</v>
       </c>
       <c r="L19">
-        <v>2.045173060337561</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.253700677882918</v>
+        <v>0.7259086117760631</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.8528136857935458</v>
       </c>
       <c r="O19">
-        <v>2.50669814170837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.361682547422845</v>
+        <v>0.3900269237145011</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02466716627017362</v>
+        <v>0.0885480923818136</v>
       </c>
       <c r="E20">
-        <v>4.747084419633296</v>
+        <v>0.08576346058704232</v>
       </c>
       <c r="F20">
-        <v>3.323812883717352</v>
+        <v>1.541018272211673</v>
       </c>
       <c r="G20">
-        <v>0.0006839962580463017</v>
+        <v>1.2304077504688</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.7352655000991035</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1043529996591133</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3.087590034452546</v>
       </c>
       <c r="L20">
-        <v>2.133346035001011</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.306683430355051</v>
+        <v>0.7548885162152388</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.8339195981149778</v>
       </c>
       <c r="O20">
-        <v>2.636566099593381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.813929997315427</v>
+        <v>0.4396329387156044</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03281142480471999</v>
+        <v>0.09772079529329147</v>
       </c>
       <c r="E21">
-        <v>5.380036867592196</v>
+        <v>0.09277487136359497</v>
       </c>
       <c r="F21">
-        <v>3.902349605884979</v>
+        <v>1.668026952394726</v>
       </c>
       <c r="G21">
-        <v>0.0006662553744685818</v>
+        <v>1.342627596104421</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7781280005454221</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1111484716102424</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.498653985489341</v>
       </c>
       <c r="L21">
-        <v>2.436635113298223</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.488765624657631</v>
+        <v>0.8533287504345139</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7724944659961537</v>
       </c>
       <c r="O21">
-        <v>3.103656478894038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.118406443403387</v>
+        <v>0.4723707312576835</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03932263176205453</v>
+        <v>0.1037919005762262</v>
       </c>
       <c r="E22">
-        <v>5.807203718386035</v>
+        <v>0.09748206702739637</v>
       </c>
       <c r="F22">
-        <v>4.313321519117267</v>
+        <v>1.754665650202909</v>
       </c>
       <c r="G22">
-        <v>0.000654461117364341</v>
+        <v>1.419275371344554</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.8078527720261661</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1157959290459729</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.770552583455867</v>
       </c>
       <c r="L22">
-        <v>2.641304731654827</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.611459949462414</v>
+        <v>0.9185697211798356</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.73395795154266</v>
       </c>
       <c r="O22">
-        <v>3.436908691573223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.954978127172808</v>
+        <v>0.4548668114527175</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03572246396206324</v>
+        <v>0.1005442031523245</v>
       </c>
       <c r="E23">
-        <v>5.577784863897676</v>
+        <v>0.09495766446230647</v>
       </c>
       <c r="F23">
-        <v>4.090537700576192</v>
+        <v>1.708071633267878</v>
       </c>
       <c r="G23">
-        <v>0.0006607798666293778</v>
+        <v>1.378044455632022</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7918222710471241</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1132955452746813</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.625109783847108</v>
       </c>
       <c r="L23">
-        <v>2.531391303796369</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.545590237409456</v>
+        <v>0.8836594974011263</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7543733731133173</v>
       </c>
       <c r="O23">
-        <v>3.256115950131729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.354418998599726</v>
+        <v>0.3892210419059694</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02455087130224953</v>
+        <v>0.08839935678637545</v>
       </c>
       <c r="E24">
-        <v>4.736927373620233</v>
+        <v>0.08565082769608168</v>
       </c>
       <c r="F24">
-        <v>3.314824818237526</v>
+        <v>1.538999156577589</v>
       </c>
       <c r="G24">
-        <v>0.0006842839949818454</v>
+        <v>1.228625064149384</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7345918512983758</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1042451805285509</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>3.080920059672451</v>
       </c>
       <c r="L24">
-        <v>2.128480236355017</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.303760070947831</v>
+        <v>0.7532933033879843</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.8349496192521073</v>
       </c>
       <c r="O24">
-        <v>2.629329978155539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.73569915592077</v>
+        <v>0.3195745522994287</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01629162682018759</v>
+        <v>0.07558324899186175</v>
       </c>
       <c r="E25">
-        <v>3.871742302058266</v>
+        <v>0.07608584648700756</v>
       </c>
       <c r="F25">
-        <v>2.583794987100617</v>
+        <v>1.370251820661878</v>
       </c>
       <c r="G25">
-        <v>0.0007092448622134387</v>
+        <v>1.079770752293186</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6793492978297593</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.09526736886534337</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.505198616316676</v>
       </c>
       <c r="L25">
-        <v>1.714343119232325</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.054781264154215</v>
+        <v>0.6158921138815359</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.9282941243022123</v>
       </c>
       <c r="O25">
-        <v>2.043217218511131</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2690799185849642</v>
+        <v>0.142330722250378</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06634598779137946</v>
+        <v>0.1135556752569897</v>
       </c>
       <c r="E2">
-        <v>0.06938724432845333</v>
+        <v>0.130026972898321</v>
       </c>
       <c r="F2">
-        <v>1.255743094155378</v>
+        <v>2.004395868106442</v>
       </c>
       <c r="G2">
-        <v>0.9788826283973862</v>
+        <v>1.354728967457035</v>
       </c>
       <c r="H2">
-        <v>0.6433951842945618</v>
+        <v>1.255659114047816</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08922966994638415</v>
+        <v>0.1733118252852037</v>
       </c>
       <c r="K2">
-        <v>2.088278079827347</v>
+        <v>0.8694532474815162</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5168132439734165</v>
+        <v>0.3397596844345543</v>
       </c>
       <c r="N2">
-        <v>1.002093691293231</v>
+        <v>2.03996805465453</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2352517451054155</v>
+        <v>0.1329949848305745</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06018997573848139</v>
+        <v>0.1124055097550496</v>
       </c>
       <c r="E3">
-        <v>0.06503371506705236</v>
+        <v>0.1296257360050959</v>
       </c>
       <c r="F3">
-        <v>1.183334585512654</v>
+        <v>1.999491145635005</v>
       </c>
       <c r="G3">
-        <v>0.915108389396849</v>
+        <v>1.348263359812805</v>
       </c>
       <c r="H3">
-        <v>0.6215913044969597</v>
+        <v>1.258138806970464</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08544950276885288</v>
+        <v>0.1734199700604506</v>
       </c>
       <c r="K3">
-        <v>1.808880950240393</v>
+        <v>0.7935265334153314</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.450668140607938</v>
+        <v>0.3233113150382962</v>
       </c>
       <c r="N3">
-        <v>1.055065404623084</v>
+        <v>2.061534953335295</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2146451270508578</v>
+        <v>0.127333784714267</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05645556572273591</v>
+        <v>0.111735593348989</v>
       </c>
       <c r="E4">
-        <v>0.06244391255902215</v>
+        <v>0.1294308185077817</v>
       </c>
       <c r="F4">
-        <v>1.141173899404421</v>
+        <v>1.997545158715226</v>
       </c>
       <c r="G4">
-        <v>0.8779681850077594</v>
+        <v>1.345120191859323</v>
       </c>
       <c r="H4">
-        <v>0.6093530388519497</v>
+        <v>1.260244265287895</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08326847504825707</v>
+        <v>0.1735624399010618</v>
       </c>
       <c r="K4">
-        <v>1.638528897214485</v>
+        <v>0.7471974914203372</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4104589677796184</v>
+        <v>0.3133712246041256</v>
       </c>
       <c r="N4">
-        <v>1.08898624831612</v>
+        <v>2.075451500095419</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2062849929407662</v>
+        <v>0.1250447898658393</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05494438003012192</v>
+        <v>0.1114717647386598</v>
       </c>
       <c r="E5">
-        <v>0.06140831751474352</v>
+        <v>0.1293643455386011</v>
       </c>
       <c r="F5">
-        <v>1.124534642999251</v>
+        <v>1.997019964214857</v>
       </c>
       <c r="G5">
-        <v>0.8633059630605118</v>
+        <v>1.344046917965386</v>
       </c>
       <c r="H5">
-        <v>0.6046390650331546</v>
+        <v>1.261248826430275</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08241300453240541</v>
+        <v>0.1736396325105858</v>
       </c>
       <c r="K5">
-        <v>1.569362279950184</v>
+        <v>0.728391330008435</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3941628542774538</v>
+        <v>0.3093607097757527</v>
       </c>
       <c r="N5">
-        <v>1.103151398145783</v>
+        <v>2.081292136660785</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2048989341883782</v>
+        <v>0.1246657947446579</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05469406756390782</v>
+        <v>0.1114285111593176</v>
       </c>
       <c r="E6">
-        <v>0.06123751887922779</v>
+        <v>0.129354090992134</v>
       </c>
       <c r="F6">
-        <v>1.121803393842015</v>
+        <v>1.996948927608258</v>
       </c>
       <c r="G6">
-        <v>0.8608988914082829</v>
+        <v>1.343881231075983</v>
       </c>
       <c r="H6">
-        <v>0.6038723710988592</v>
+        <v>1.261424485274475</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08227291332961428</v>
+        <v>0.1736536062017393</v>
       </c>
       <c r="K6">
-        <v>1.557891158686715</v>
+        <v>0.7252730176286377</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3914619579654257</v>
+        <v>0.3086971950103603</v>
       </c>
       <c r="N6">
-        <v>1.105523923734825</v>
+        <v>2.082272207786414</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.214532233772843</v>
+        <v>0.127302841499187</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05643514337940303</v>
+        <v>0.1117319980865759</v>
       </c>
       <c r="E7">
-        <v>0.06242986761061786</v>
+        <v>0.1294298695366791</v>
       </c>
       <c r="F7">
-        <v>1.140947350296656</v>
+        <v>1.997536991573512</v>
       </c>
       <c r="G7">
-        <v>0.8777685753443194</v>
+        <v>1.345104877176354</v>
       </c>
       <c r="H7">
-        <v>0.6092883784877188</v>
+        <v>1.260257219712059</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08325680539636338</v>
+        <v>0.1735634034611451</v>
       </c>
       <c r="K7">
-        <v>1.637595128234324</v>
+        <v>0.7469435677510887</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4102388460603166</v>
+        <v>0.313316974685911</v>
       </c>
       <c r="N7">
-        <v>1.089175910589063</v>
+        <v>2.075529582608048</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.257379433891316</v>
+        <v>0.1390971097573299</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06421347084418016</v>
+        <v>0.113151591042822</v>
       </c>
       <c r="E8">
-        <v>0.06786813431975958</v>
+        <v>0.129877961814632</v>
       </c>
       <c r="F8">
-        <v>1.230276979406185</v>
+        <v>2.002483485004177</v>
       </c>
       <c r="G8">
-        <v>0.9564530506229687</v>
+        <v>1.352327849842908</v>
       </c>
       <c r="H8">
-        <v>0.6356288190965955</v>
+        <v>1.256393119224683</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08789603486383868</v>
+        <v>0.1733333293213946</v>
       </c>
       <c r="K8">
-        <v>1.991663011921872</v>
+        <v>0.8432136310779015</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4939149278075305</v>
+        <v>0.334055284038925</v>
       </c>
       <c r="N8">
-        <v>1.020063087223319</v>
+        <v>2.047264325731838</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3428993599409864</v>
+        <v>0.1627839018027259</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07986659128069107</v>
+        <v>0.1162217221377944</v>
       </c>
       <c r="E9">
-        <v>0.07925036488114401</v>
+        <v>0.1311640811612875</v>
       </c>
       <c r="F9">
-        <v>1.425457085008958</v>
+        <v>2.020647066212575</v>
       </c>
       <c r="G9">
-        <v>1.128440629279311</v>
+        <v>1.373068099246694</v>
       </c>
       <c r="H9">
-        <v>0.6971703357650796</v>
+        <v>1.253442472480245</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09819616612586657</v>
+        <v>0.1734856029064673</v>
       </c>
       <c r="K9">
-        <v>2.697876376224741</v>
+        <v>1.034298854726671</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6618086449091507</v>
+        <v>0.3759848319681467</v>
       </c>
       <c r="N9">
-        <v>0.8960341485045689</v>
+        <v>1.99718849142096</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4069366725482979</v>
+        <v>0.1805221992838284</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09167112559990898</v>
+        <v>0.1186500427163395</v>
       </c>
       <c r="E10">
-        <v>0.08813642275973521</v>
+        <v>0.13235659142941</v>
       </c>
       <c r="F10">
-        <v>1.583716981589546</v>
+        <v>2.039168704083281</v>
       </c>
       <c r="G10">
-        <v>1.268116175048334</v>
+        <v>1.392341273475154</v>
       </c>
       <c r="H10">
-        <v>0.7495711618690564</v>
+        <v>1.254099366195845</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1066347717881584</v>
+        <v>0.1739654671096531</v>
       </c>
       <c r="K10">
-        <v>3.227600916339554</v>
+        <v>1.176102284864044</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7883899422833736</v>
+        <v>0.4075606927868094</v>
       </c>
       <c r="N10">
-        <v>0.8125499999761985</v>
+        <v>1.963661220770145</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4364007128723699</v>
+        <v>0.1886637947996093</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09712212228335204</v>
+        <v>0.1197918804822038</v>
       </c>
       <c r="E11">
-        <v>0.09231347754647956</v>
+        <v>0.132952715596943</v>
       </c>
       <c r="F11">
-        <v>1.659592061494834</v>
+        <v>2.048722869191721</v>
       </c>
       <c r="G11">
-        <v>1.335169665968778</v>
+        <v>1.401991344945685</v>
       </c>
       <c r="H11">
-        <v>0.7752537547161751</v>
+        <v>1.255012609960573</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1106964600347666</v>
+        <v>0.1742637219604077</v>
       </c>
       <c r="K11">
-        <v>3.471837628377216</v>
+        <v>1.240922553374673</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8468995142041535</v>
+        <v>0.4220930798760065</v>
       </c>
       <c r="N11">
-        <v>0.7763826110637488</v>
+        <v>1.949117561993742</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4476120249692599</v>
+        <v>0.1917570912414845</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09919925364246041</v>
+        <v>0.1202295742363475</v>
       </c>
       <c r="E12">
-        <v>0.09391648482644399</v>
+        <v>0.1331861496760425</v>
       </c>
       <c r="F12">
-        <v>1.688941867651195</v>
+        <v>2.052503320412882</v>
       </c>
       <c r="G12">
-        <v>1.361123319300589</v>
+        <v>1.405772906928121</v>
       </c>
       <c r="H12">
-        <v>0.7852704790228699</v>
+        <v>1.255446844829095</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1122696366566842</v>
+        <v>0.1743881613290696</v>
       </c>
       <c r="K12">
-        <v>3.564874060079489</v>
+        <v>1.265513276157094</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8692091799744048</v>
+        <v>0.4276202867719263</v>
       </c>
       <c r="N12">
-        <v>0.7629614396729352</v>
+        <v>1.943712139737897</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4451949698097906</v>
+        <v>0.1910904410440395</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09875130800026</v>
+        <v>0.120135073803219</v>
       </c>
       <c r="E13">
-        <v>0.09357027201246382</v>
+        <v>0.1331355335485433</v>
       </c>
       <c r="F13">
-        <v>1.682592392129578</v>
+        <v>2.051681902188349</v>
       </c>
       <c r="G13">
-        <v>1.355507785518427</v>
+        <v>1.404952812723167</v>
       </c>
       <c r="H13">
-        <v>0.7830998042817612</v>
+        <v>1.255349391630034</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1119292122661335</v>
+        <v>0.1743608497897071</v>
       </c>
       <c r="K13">
-        <v>3.544811211482454</v>
+        <v>1.260215241622404</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8643972343070629</v>
+        <v>0.4264288333379085</v>
       </c>
       <c r="N13">
-        <v>0.7658394726185236</v>
+        <v>1.944871758012578</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4373219576442153</v>
+        <v>0.1889180775966253</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09729274158164003</v>
+        <v>0.1198277837405186</v>
       </c>
       <c r="E14">
-        <v>0.09244492079671573</v>
+        <v>0.1329717662540872</v>
       </c>
       <c r="F14">
-        <v>1.661993951531812</v>
+        <v>2.049030631319411</v>
       </c>
       <c r="G14">
-        <v>1.337293283526947</v>
+        <v>1.402299903121246</v>
       </c>
       <c r="H14">
-        <v>0.7760718416855923</v>
+        <v>1.255046562539775</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1108251642794684</v>
+        <v>0.1742737292596885</v>
       </c>
       <c r="K14">
-        <v>3.479480296591362</v>
+        <v>1.242944753140591</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8487317487906623</v>
+        <v>0.4225473239593924</v>
       </c>
       <c r="N14">
-        <v>0.7752728524455001</v>
+        <v>1.948670810768373</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.432506718145774</v>
+        <v>0.1875887726667713</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09640105553759781</v>
+        <v>0.1196402492672419</v>
       </c>
       <c r="E15">
-        <v>0.09175843599982514</v>
+        <v>0.1328724555760523</v>
       </c>
       <c r="F15">
-        <v>1.649459090458365</v>
+        <v>2.047427819394542</v>
       </c>
       <c r="G15">
-        <v>1.3262113261965</v>
+        <v>1.400691507287092</v>
       </c>
       <c r="H15">
-        <v>0.7718057564503908</v>
+        <v>1.254872586188526</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1101535695446998</v>
+        <v>0.1742218625853198</v>
       </c>
       <c r="K15">
-        <v>3.439537267701155</v>
+        <v>1.232371890702723</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8391567852921824</v>
+        <v>0.420172923802923</v>
       </c>
       <c r="N15">
-        <v>0.7810872828446946</v>
+        <v>1.951011120442942</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4050183362729314</v>
+        <v>0.1799915697099692</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09131662986743549</v>
+        <v>0.1185761655246438</v>
       </c>
       <c r="E16">
-        <v>0.08786631013597912</v>
+        <v>0.1323187111370387</v>
       </c>
       <c r="F16">
-        <v>1.578841432014116</v>
+        <v>2.038567044520079</v>
       </c>
       <c r="G16">
-        <v>1.263809510702743</v>
+        <v>1.391728410626342</v>
       </c>
       <c r="H16">
-        <v>0.7479320383772006</v>
+        <v>1.25405205203964</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1063740711647725</v>
+        <v>0.1739475843442904</v>
       </c>
       <c r="K16">
-        <v>3.211711802126729</v>
+        <v>1.171872400576547</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7845865316460774</v>
+        <v>0.4066143462197189</v>
       </c>
       <c r="N16">
-        <v>0.8149512450961254</v>
+        <v>1.964625941901875</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3882445760450111</v>
+        <v>0.1753493543899936</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0882191503281291</v>
+        <v>0.1179328778306754</v>
       </c>
       <c r="E17">
-        <v>0.08551440991114134</v>
+        <v>0.1319927328942221</v>
       </c>
       <c r="F17">
-        <v>1.53655459543775</v>
+        <v>2.03342044923231</v>
       </c>
       <c r="G17">
-        <v>1.226466803944817</v>
+        <v>1.386456161642883</v>
       </c>
       <c r="H17">
-        <v>0.7337766115923898</v>
+        <v>1.253706088015008</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1041146531693187</v>
+        <v>0.1737998024591292</v>
       </c>
       <c r="K17">
-        <v>3.07283853447953</v>
+        <v>1.134837891322462</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.751360594278708</v>
+        <v>0.3983396471325378</v>
       </c>
       <c r="N17">
-        <v>0.8361991049405155</v>
+        <v>1.973159635291525</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3786277253800421</v>
+        <v>0.1726860945207562</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.086445106869391</v>
+        <v>0.1175663780732847</v>
       </c>
       <c r="E18">
-        <v>0.08417422060041702</v>
+        <v>0.1318102893234325</v>
       </c>
       <c r="F18">
-        <v>1.512593847903801</v>
+        <v>2.030566478292187</v>
       </c>
       <c r="G18">
-        <v>1.205315377998659</v>
+        <v>1.383506756320259</v>
       </c>
       <c r="H18">
-        <v>0.7258067753531634</v>
+        <v>1.253564927196976</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1028358808448218</v>
+        <v>0.1737223287406096</v>
       </c>
       <c r="K18">
-        <v>2.99326414690367</v>
+        <v>1.11356611889596</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7323358730852334</v>
+        <v>0.3935961129688224</v>
       </c>
       <c r="N18">
-        <v>0.8485897453962252</v>
+        <v>1.978134628582461</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.37537676824914</v>
+        <v>0.1717855364396002</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08584570424066129</v>
+        <v>0.1174428903678901</v>
       </c>
       <c r="E19">
-        <v>0.08372255851688593</v>
+        <v>0.1317493850835803</v>
       </c>
       <c r="F19">
-        <v>1.504541519893749</v>
+        <v>2.029618408948679</v>
       </c>
       <c r="G19">
-        <v>1.198208408857056</v>
+        <v>1.382522391494177</v>
       </c>
       <c r="H19">
-        <v>0.7231371128409023</v>
+        <v>1.2535270629987</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1024063918109164</v>
+        <v>0.1736973902128653</v>
       </c>
       <c r="K19">
-        <v>2.966371146739021</v>
+        <v>1.106368938973418</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7259086117760631</v>
+        <v>0.3919927599173292</v>
       </c>
       <c r="N19">
-        <v>0.8528136857935458</v>
+        <v>1.979830517272665</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3900269237145011</v>
+        <v>0.1758428214453573</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0885480923818136</v>
+        <v>0.1180009947352758</v>
       </c>
       <c r="E20">
-        <v>0.08576346058704232</v>
+        <v>0.1320269112684542</v>
       </c>
       <c r="F20">
-        <v>1.541018272211673</v>
+        <v>2.033957318777311</v>
       </c>
       <c r="G20">
-        <v>1.2304077504688</v>
+        <v>1.387008803202633</v>
       </c>
       <c r="H20">
-        <v>0.7352655000991035</v>
+        <v>1.253736931031199</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1043529996591133</v>
+        <v>0.173814755140782</v>
       </c>
       <c r="K20">
-        <v>3.087590034452546</v>
+        <v>1.138777227629987</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7548885162152388</v>
+        <v>0.3992188629157667</v>
       </c>
       <c r="N20">
-        <v>0.8339195981149778</v>
+        <v>1.972244311307897</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4396329387156044</v>
+        <v>0.189555876418936</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09772079529329147</v>
+        <v>0.1199178986521616</v>
       </c>
       <c r="E21">
-        <v>0.09277487136359497</v>
+        <v>0.1330196599969717</v>
       </c>
       <c r="F21">
-        <v>1.668026952394726</v>
+        <v>2.04980496206565</v>
       </c>
       <c r="G21">
-        <v>1.342627596104421</v>
+        <v>1.403075669409247</v>
       </c>
       <c r="H21">
-        <v>0.7781280005454221</v>
+        <v>1.255133110920752</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1111484716102424</v>
+        <v>0.1742990066656347</v>
       </c>
       <c r="K21">
-        <v>3.498653985489341</v>
+        <v>1.248016303963084</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8533287504345139</v>
+        <v>0.4236867639112347</v>
       </c>
       <c r="N21">
-        <v>0.7724944659961537</v>
+        <v>1.947552169076882</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4723707312576835</v>
+        <v>0.1985778292460338</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1037919005762262</v>
+        <v>0.1212016058559158</v>
       </c>
       <c r="E22">
-        <v>0.09748206702739637</v>
+        <v>0.1337133209765611</v>
       </c>
       <c r="F22">
-        <v>1.754665650202909</v>
+        <v>2.061109564481725</v>
       </c>
       <c r="G22">
-        <v>1.419275371344554</v>
+        <v>1.414318409259835</v>
       </c>
       <c r="H22">
-        <v>0.8078527720261661</v>
+        <v>1.256560939879023</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1157959290459729</v>
+        <v>0.1746825041276381</v>
       </c>
       <c r="K22">
-        <v>3.770552583455867</v>
+        <v>1.319670710598302</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9185697211798356</v>
+        <v>0.4398184200021831</v>
       </c>
       <c r="N22">
-        <v>0.73395795154266</v>
+        <v>1.932008705778387</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4548668114527175</v>
+        <v>0.1937572334660445</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1005442031523245</v>
+        <v>0.1205136537285298</v>
       </c>
       <c r="E23">
-        <v>0.09495766446230647</v>
+        <v>0.1333390043278442</v>
       </c>
       <c r="F23">
-        <v>1.708071633267878</v>
+        <v>2.054989342275761</v>
       </c>
       <c r="G23">
-        <v>1.378044455632022</v>
+        <v>1.408249920537145</v>
       </c>
       <c r="H23">
-        <v>0.7918222710471241</v>
+        <v>1.255751707393529</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1132955452746813</v>
+        <v>0.1744716933098829</v>
       </c>
       <c r="K23">
-        <v>3.625109783847108</v>
+        <v>1.281403694047924</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8836594974011263</v>
+        <v>0.4311958327555772</v>
       </c>
       <c r="N23">
-        <v>0.7543733731133173</v>
+        <v>1.9402501252024</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3892210419059694</v>
+        <v>0.1756197074993793</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08839935678637545</v>
+        <v>0.117970188692432</v>
       </c>
       <c r="E24">
-        <v>0.08565082769608168</v>
+        <v>0.1320114437569266</v>
       </c>
       <c r="F24">
-        <v>1.538999156577589</v>
+        <v>2.033714273381847</v>
       </c>
       <c r="G24">
-        <v>1.228625064149384</v>
+        <v>1.386758699544089</v>
       </c>
       <c r="H24">
-        <v>0.7345918512983758</v>
+        <v>1.253722807045591</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1042451805285509</v>
+        <v>0.1738079717090457</v>
       </c>
       <c r="K24">
-        <v>3.080920059672451</v>
+        <v>1.136996191799767</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7532933033879843</v>
+        <v>0.3988213267771243</v>
       </c>
       <c r="N24">
-        <v>0.8349496192521073</v>
+        <v>1.972657914786215</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3195745522994287</v>
+        <v>0.1563167180824081</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07558324899186175</v>
+        <v>0.1153607105735617</v>
       </c>
       <c r="E25">
-        <v>0.07608584648700756</v>
+        <v>0.1307726158642843</v>
       </c>
       <c r="F25">
-        <v>1.370251820661878</v>
+        <v>2.014825486329386</v>
       </c>
       <c r="G25">
-        <v>1.079770752293186</v>
+        <v>1.366750585672818</v>
       </c>
       <c r="H25">
-        <v>0.6793492978297593</v>
+        <v>1.253744951177183</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09526736886534337</v>
+        <v>0.1733797950247009</v>
       </c>
       <c r="K25">
-        <v>2.505198616316676</v>
+        <v>0.9823578942436484</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6158921138815359</v>
+        <v>0.3645065962029861</v>
       </c>
       <c r="N25">
-        <v>0.9282941243022123</v>
+        <v>2.010162292433145</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.142330722250378</v>
+        <v>0.26907991858495</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1135556752569897</v>
+        <v>0.06634598779137946</v>
       </c>
       <c r="E2">
-        <v>0.130026972898321</v>
+        <v>0.06938724432843912</v>
       </c>
       <c r="F2">
-        <v>2.004395868106442</v>
+        <v>1.255743094155378</v>
       </c>
       <c r="G2">
-        <v>1.354728967457035</v>
+        <v>0.9788826283973862</v>
       </c>
       <c r="H2">
-        <v>1.255659114047816</v>
+        <v>0.6433951842945618</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1733118252852037</v>
+        <v>0.08922966994628467</v>
       </c>
       <c r="K2">
-        <v>0.8694532474815162</v>
+        <v>2.08827807982729</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3397596844345543</v>
+        <v>0.5168132439734237</v>
       </c>
       <c r="N2">
-        <v>2.03996805465453</v>
+        <v>1.002093691293233</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329949848305745</v>
+        <v>0.235251745105387</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1124055097550496</v>
+        <v>0.06018997573858798</v>
       </c>
       <c r="E3">
-        <v>0.1296257360050959</v>
+        <v>0.06503371506705591</v>
       </c>
       <c r="F3">
-        <v>1.999491145635005</v>
+        <v>1.183334585512668</v>
       </c>
       <c r="G3">
-        <v>1.348263359812805</v>
+        <v>0.9151083893969201</v>
       </c>
       <c r="H3">
-        <v>1.258138806970464</v>
+        <v>0.6215913044970733</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1734199700604506</v>
+        <v>0.08544950276884222</v>
       </c>
       <c r="K3">
-        <v>0.7935265334153314</v>
+        <v>1.808880950240365</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3233113150382962</v>
+        <v>0.4506681406079309</v>
       </c>
       <c r="N3">
-        <v>2.061534953335295</v>
+        <v>1.055065404623081</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.127333784714267</v>
+        <v>0.2146451270509573</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.111735593348989</v>
+        <v>0.05645556572255828</v>
       </c>
       <c r="E4">
-        <v>0.1294308185077817</v>
+        <v>0.06244391255900439</v>
       </c>
       <c r="F4">
-        <v>1.997545158715226</v>
+        <v>1.141173899404407</v>
       </c>
       <c r="G4">
-        <v>1.345120191859323</v>
+        <v>0.8779681850077594</v>
       </c>
       <c r="H4">
-        <v>1.260244265287895</v>
+        <v>0.6093530388519497</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1735624399010618</v>
+        <v>0.08326847504822865</v>
       </c>
       <c r="K4">
-        <v>0.7471974914203372</v>
+        <v>1.638528897214513</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3133712246041256</v>
+        <v>0.4104589677796113</v>
       </c>
       <c r="N4">
-        <v>2.075451500095419</v>
+        <v>1.088986248316106</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1250447898658393</v>
+        <v>0.2062849929406383</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1114717647386598</v>
+        <v>0.05494438003000823</v>
       </c>
       <c r="E5">
-        <v>0.1293643455386011</v>
+        <v>0.0614083175147293</v>
       </c>
       <c r="F5">
-        <v>1.997019964214857</v>
+        <v>1.124534642999251</v>
       </c>
       <c r="G5">
-        <v>1.344046917965386</v>
+        <v>0.8633059630604834</v>
       </c>
       <c r="H5">
-        <v>1.261248826430275</v>
+        <v>0.6046390650330551</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1736396325105858</v>
+        <v>0.08241300453228106</v>
       </c>
       <c r="K5">
-        <v>0.728391330008435</v>
+        <v>1.569362279950298</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3093607097757527</v>
+        <v>0.394162854277468</v>
       </c>
       <c r="N5">
-        <v>2.081292136660785</v>
+        <v>1.103151398145798</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1246657947446579</v>
+        <v>0.2048989341885061</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1114285111593176</v>
+        <v>0.05469406756402151</v>
       </c>
       <c r="E6">
-        <v>0.129354090992134</v>
+        <v>0.06123751887923135</v>
       </c>
       <c r="F6">
-        <v>1.996948927608258</v>
+        <v>1.121803393842001</v>
       </c>
       <c r="G6">
-        <v>1.343881231075983</v>
+        <v>0.8608988914082829</v>
       </c>
       <c r="H6">
-        <v>1.261424485274475</v>
+        <v>0.603872371098845</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1736536062017393</v>
+        <v>0.08227291332959297</v>
       </c>
       <c r="K6">
-        <v>0.7252730176286377</v>
+        <v>1.557891158686829</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3086971950103603</v>
+        <v>0.3914619579654328</v>
       </c>
       <c r="N6">
-        <v>2.082272207786414</v>
+        <v>1.105523923734809</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.127302841499187</v>
+        <v>0.2145322337728857</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1117319980865759</v>
+        <v>0.05643514337941014</v>
       </c>
       <c r="E7">
-        <v>0.1294298695366791</v>
+        <v>0.06242986761059655</v>
       </c>
       <c r="F7">
-        <v>1.997536991573512</v>
+        <v>1.140947350296656</v>
       </c>
       <c r="G7">
-        <v>1.345104877176354</v>
+        <v>0.8777685753443194</v>
       </c>
       <c r="H7">
-        <v>1.260257219712059</v>
+        <v>0.6092883784876051</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1735634034611451</v>
+        <v>0.08325680539643088</v>
       </c>
       <c r="K7">
-        <v>0.7469435677510887</v>
+        <v>1.637595128234381</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.313316974685911</v>
+        <v>0.4102388460603308</v>
       </c>
       <c r="N7">
-        <v>2.075529582608048</v>
+        <v>1.089175910589084</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1390971097573299</v>
+        <v>0.2573794338912023</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.113151591042822</v>
+        <v>0.06421347084453544</v>
       </c>
       <c r="E8">
-        <v>0.129877961814632</v>
+        <v>0.06786813431978445</v>
       </c>
       <c r="F8">
-        <v>2.002483485004177</v>
+        <v>1.230276979406185</v>
       </c>
       <c r="G8">
-        <v>1.352327849842908</v>
+        <v>0.9564530506229545</v>
       </c>
       <c r="H8">
-        <v>1.256393119224683</v>
+        <v>0.6356288190965955</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1733333293213946</v>
+        <v>0.08789603486388131</v>
       </c>
       <c r="K8">
-        <v>0.8432136310779015</v>
+        <v>1.991663011921844</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.334055284038925</v>
+        <v>0.4939149278075519</v>
       </c>
       <c r="N8">
-        <v>2.047264325731838</v>
+        <v>1.020063087223317</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1627839018027259</v>
+        <v>0.3428993599410717</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1162217221377944</v>
+        <v>0.07986659128088291</v>
       </c>
       <c r="E9">
-        <v>0.1311640811612875</v>
+        <v>0.07925036488114756</v>
       </c>
       <c r="F9">
-        <v>2.020647066212575</v>
+        <v>1.425457085008972</v>
       </c>
       <c r="G9">
-        <v>1.373068099246694</v>
+        <v>1.128440629279339</v>
       </c>
       <c r="H9">
-        <v>1.253442472480245</v>
+        <v>0.6971703357652075</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1734856029064673</v>
+        <v>0.09819616612586657</v>
       </c>
       <c r="K9">
-        <v>1.034298854726671</v>
+        <v>2.697876376224741</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3759848319681467</v>
+        <v>0.6618086449091365</v>
       </c>
       <c r="N9">
-        <v>1.99718849142096</v>
+        <v>0.8960341485045014</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1805221992838284</v>
+        <v>0.4069366725482979</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1186500427163395</v>
+        <v>0.09167112559990898</v>
       </c>
       <c r="E10">
-        <v>0.13235659142941</v>
+        <v>0.08813642275973521</v>
       </c>
       <c r="F10">
-        <v>2.039168704083281</v>
+        <v>1.583716981589561</v>
       </c>
       <c r="G10">
-        <v>1.392341273475154</v>
+        <v>1.268116175048362</v>
       </c>
       <c r="H10">
-        <v>1.254099366195845</v>
+        <v>0.7495711618691701</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1739654671096531</v>
+        <v>0.1066347717881584</v>
       </c>
       <c r="K10">
-        <v>1.176102284864044</v>
+        <v>3.227600916339611</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4075606927868094</v>
+        <v>0.7883899422833736</v>
       </c>
       <c r="N10">
-        <v>1.963661220770145</v>
+        <v>0.8125499999761985</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1886637947996093</v>
+        <v>0.4364007128723699</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1197918804822038</v>
+        <v>0.09712212228323125</v>
       </c>
       <c r="E11">
-        <v>0.132952715596943</v>
+        <v>0.09231347754648311</v>
       </c>
       <c r="F11">
-        <v>2.048722869191721</v>
+        <v>1.659592061494834</v>
       </c>
       <c r="G11">
-        <v>1.401991344945685</v>
+        <v>1.335169665968834</v>
       </c>
       <c r="H11">
-        <v>1.255012609960573</v>
+        <v>0.7752537547160614</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1742637219604077</v>
+        <v>0.1106964600346032</v>
       </c>
       <c r="K11">
-        <v>1.240922553374673</v>
+        <v>3.471837628377159</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4220930798760065</v>
+        <v>0.8468995142041393</v>
       </c>
       <c r="N11">
-        <v>1.949117561993742</v>
+        <v>0.7763826110638199</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1917570912414845</v>
+        <v>0.4476120249692741</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1202295742363475</v>
+        <v>0.0991992536424533</v>
       </c>
       <c r="E12">
-        <v>0.1331861496760425</v>
+        <v>0.09391648482644754</v>
       </c>
       <c r="F12">
-        <v>2.052503320412882</v>
+        <v>1.688941867651181</v>
       </c>
       <c r="G12">
-        <v>1.405772906928121</v>
+        <v>1.361123319300674</v>
       </c>
       <c r="H12">
-        <v>1.255446844829095</v>
+        <v>0.7852704790230121</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1743881613290696</v>
+        <v>0.1122696366567908</v>
       </c>
       <c r="K12">
-        <v>1.265513276157094</v>
+        <v>3.564874060079489</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4276202867719263</v>
+        <v>0.8692091799744048</v>
       </c>
       <c r="N12">
-        <v>1.943712139737897</v>
+        <v>0.7629614396729458</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1910904410440395</v>
+        <v>0.4451949698097479</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.120135073803219</v>
+        <v>0.09875130800026</v>
       </c>
       <c r="E13">
-        <v>0.1331355335485433</v>
+        <v>0.09357027201247803</v>
       </c>
       <c r="F13">
-        <v>2.051681902188349</v>
+        <v>1.682592392129592</v>
       </c>
       <c r="G13">
-        <v>1.404952812723167</v>
+        <v>1.355507785518455</v>
       </c>
       <c r="H13">
-        <v>1.255349391630034</v>
+        <v>0.7830998042818749</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1743608497897071</v>
+        <v>0.1119292122660838</v>
       </c>
       <c r="K13">
-        <v>1.260215241622404</v>
+        <v>3.544811211482511</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4264288333379085</v>
+        <v>0.8643972343070487</v>
       </c>
       <c r="N13">
-        <v>1.944871758012578</v>
+        <v>0.7658394726185165</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1889180775966253</v>
+        <v>0.4373219576441727</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1198277837405186</v>
+        <v>0.09729274158174661</v>
       </c>
       <c r="E14">
-        <v>0.1329717662540872</v>
+        <v>0.09244492079673705</v>
       </c>
       <c r="F14">
-        <v>2.049030631319411</v>
+        <v>1.661993951531798</v>
       </c>
       <c r="G14">
-        <v>1.402299903121246</v>
+        <v>1.337293283526918</v>
       </c>
       <c r="H14">
-        <v>1.255046562539775</v>
+        <v>0.776071841685706</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1742737292596885</v>
+        <v>0.1108251642795821</v>
       </c>
       <c r="K14">
-        <v>1.242944753140591</v>
+        <v>3.479480296591476</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4225473239593924</v>
+        <v>0.8487317487906623</v>
       </c>
       <c r="N14">
-        <v>1.948670810768373</v>
+        <v>0.7752728524455108</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1875887726667713</v>
+        <v>0.432506718145774</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1196402492672419</v>
+        <v>0.09640105553759781</v>
       </c>
       <c r="E15">
-        <v>0.1328724555760523</v>
+        <v>0.0917584359998429</v>
       </c>
       <c r="F15">
-        <v>2.047427819394542</v>
+        <v>1.649459090458379</v>
       </c>
       <c r="G15">
-        <v>1.400691507287092</v>
+        <v>1.326211326196386</v>
       </c>
       <c r="H15">
-        <v>1.254872586188526</v>
+        <v>0.7718057564503624</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1742218625853198</v>
+        <v>0.1101535695446998</v>
       </c>
       <c r="K15">
-        <v>1.232371890702723</v>
+        <v>3.439537267701155</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.420172923802923</v>
+        <v>0.8391567852921895</v>
       </c>
       <c r="N15">
-        <v>1.951011120442942</v>
+        <v>0.781087282844684</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1799915697099692</v>
+        <v>0.4050183362729314</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1185761655246438</v>
+        <v>0.09131662986739997</v>
       </c>
       <c r="E16">
-        <v>0.1323187111370387</v>
+        <v>0.08786631013597557</v>
       </c>
       <c r="F16">
-        <v>2.038567044520079</v>
+        <v>1.57884143201413</v>
       </c>
       <c r="G16">
-        <v>1.391728410626342</v>
+        <v>1.263809510702771</v>
       </c>
       <c r="H16">
-        <v>1.25405205203964</v>
+        <v>0.7479320383773143</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1739475843442904</v>
+        <v>0.1063740711648862</v>
       </c>
       <c r="K16">
-        <v>1.171872400576547</v>
+        <v>3.211711802126729</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4066143462197189</v>
+        <v>0.7845865316460774</v>
       </c>
       <c r="N16">
-        <v>1.964625941901875</v>
+        <v>0.814951245096065</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1753493543899936</v>
+        <v>0.3882445760449968</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1179328778306754</v>
+        <v>0.08821915032809358</v>
       </c>
       <c r="E17">
-        <v>0.1319927328942221</v>
+        <v>0.08551440991113779</v>
       </c>
       <c r="F17">
-        <v>2.03342044923231</v>
+        <v>1.53655459543775</v>
       </c>
       <c r="G17">
-        <v>1.386456161642883</v>
+        <v>1.226466803944902</v>
       </c>
       <c r="H17">
-        <v>1.253706088015008</v>
+        <v>0.7337766115923898</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1737998024591292</v>
+        <v>0.1041146531693542</v>
       </c>
       <c r="K17">
-        <v>1.134837891322462</v>
+        <v>3.072838534479502</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3983396471325378</v>
+        <v>0.7513605942787152</v>
       </c>
       <c r="N17">
-        <v>1.973159635291525</v>
+        <v>0.8361991049404409</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1726860945207562</v>
+        <v>0.3786277253799142</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1175663780732847</v>
+        <v>0.08644510686908546</v>
       </c>
       <c r="E18">
-        <v>0.1318102893234325</v>
+        <v>0.08417422060041702</v>
       </c>
       <c r="F18">
-        <v>2.030566478292187</v>
+        <v>1.512593847903815</v>
       </c>
       <c r="G18">
-        <v>1.383506756320259</v>
+        <v>1.205315377998602</v>
       </c>
       <c r="H18">
-        <v>1.253564927196976</v>
+        <v>0.7258067753531634</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1737223287406096</v>
+        <v>0.1028358808448928</v>
       </c>
       <c r="K18">
-        <v>1.11356611889596</v>
+        <v>2.993264146903613</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3935961129688224</v>
+        <v>0.7323358730852405</v>
       </c>
       <c r="N18">
-        <v>1.978134628582461</v>
+        <v>0.8485897453962714</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1717855364396002</v>
+        <v>0.3753767682488984</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1174428903678901</v>
+        <v>0.08584570424057603</v>
       </c>
       <c r="E19">
-        <v>0.1317493850835803</v>
+        <v>0.08372255851688593</v>
       </c>
       <c r="F19">
-        <v>2.029618408948679</v>
+        <v>1.504541519893749</v>
       </c>
       <c r="G19">
-        <v>1.382522391494177</v>
+        <v>1.198208408857028</v>
       </c>
       <c r="H19">
-        <v>1.2535270629987</v>
+        <v>0.7231371128409307</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1736973902128653</v>
+        <v>0.1024063918109661</v>
       </c>
       <c r="K19">
-        <v>1.106368938973418</v>
+        <v>2.96637114673905</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3919927599173292</v>
+        <v>0.7259086117760702</v>
       </c>
       <c r="N19">
-        <v>1.979830517272665</v>
+        <v>0.8528136857934889</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1758428214453573</v>
+        <v>0.3900269237145721</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1180009947352758</v>
+        <v>0.08854809238172834</v>
       </c>
       <c r="E20">
-        <v>0.1320269112684542</v>
+        <v>0.08576346058703876</v>
       </c>
       <c r="F20">
-        <v>2.033957318777311</v>
+        <v>1.541018272211673</v>
       </c>
       <c r="G20">
-        <v>1.387008803202633</v>
+        <v>1.230407750468828</v>
       </c>
       <c r="H20">
-        <v>1.253736931031199</v>
+        <v>0.7352655000991035</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.173814755140782</v>
+        <v>0.1043529996591275</v>
       </c>
       <c r="K20">
-        <v>1.138777227629987</v>
+        <v>3.087590034452489</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3992188629157667</v>
+        <v>0.7548885162152459</v>
       </c>
       <c r="N20">
-        <v>1.972244311307897</v>
+        <v>0.8339195981149778</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.189555876418936</v>
+        <v>0.4396329387156044</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1199178986521616</v>
+        <v>0.09772079529330568</v>
       </c>
       <c r="E21">
-        <v>0.1330196599969717</v>
+        <v>0.09277487136359497</v>
       </c>
       <c r="F21">
-        <v>2.04980496206565</v>
+        <v>1.668026952394726</v>
       </c>
       <c r="G21">
-        <v>1.403075669409247</v>
+        <v>1.34262759610445</v>
       </c>
       <c r="H21">
-        <v>1.255133110920752</v>
+        <v>0.7781280005453368</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1742990066656347</v>
+        <v>0.1111484716101998</v>
       </c>
       <c r="K21">
-        <v>1.248016303963084</v>
+        <v>3.498653985489398</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4236867639112347</v>
+        <v>0.8533287504344997</v>
       </c>
       <c r="N21">
-        <v>1.947552169076882</v>
+        <v>0.7724944659961714</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1985778292460338</v>
+        <v>0.4723707312576835</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1212016058559158</v>
+        <v>0.1037919005761836</v>
       </c>
       <c r="E22">
-        <v>0.1337133209765611</v>
+        <v>0.09748206702738216</v>
       </c>
       <c r="F22">
-        <v>2.061109564481725</v>
+        <v>1.754665650202909</v>
       </c>
       <c r="G22">
-        <v>1.414318409259835</v>
+        <v>1.419275371344469</v>
       </c>
       <c r="H22">
-        <v>1.256560939879023</v>
+        <v>0.8078527720260524</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1746825041276381</v>
+        <v>0.1157959290458095</v>
       </c>
       <c r="K22">
-        <v>1.319670710598302</v>
+        <v>3.77055258345581</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4398184200021831</v>
+        <v>0.9185697211798356</v>
       </c>
       <c r="N22">
-        <v>1.932008705778387</v>
+        <v>0.7339579515427204</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1937572334660445</v>
+        <v>0.4548668114527175</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1205136537285298</v>
+        <v>0.1005442031523245</v>
       </c>
       <c r="E23">
-        <v>0.1333390043278442</v>
+        <v>0.094957664462342</v>
       </c>
       <c r="F23">
-        <v>2.054989342275761</v>
+        <v>1.708071633267878</v>
       </c>
       <c r="G23">
-        <v>1.408249920537145</v>
+        <v>1.378044455632022</v>
       </c>
       <c r="H23">
-        <v>1.255751707393529</v>
+        <v>0.7918222710471241</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1744716933098829</v>
+        <v>0.1132955452747311</v>
       </c>
       <c r="K23">
-        <v>1.281403694047924</v>
+        <v>3.625109783847108</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4311958327555772</v>
+        <v>0.8836594974011334</v>
       </c>
       <c r="N23">
-        <v>1.9402501252024</v>
+        <v>0.7543733731132534</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1756197074993793</v>
+        <v>0.3892210419059552</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.117970188692432</v>
+        <v>0.08839935678641098</v>
       </c>
       <c r="E24">
-        <v>0.1320114437569266</v>
+        <v>0.08565082769608523</v>
       </c>
       <c r="F24">
-        <v>2.033714273381847</v>
+        <v>1.538999156577589</v>
       </c>
       <c r="G24">
-        <v>1.386758699544089</v>
+        <v>1.228625064149441</v>
       </c>
       <c r="H24">
-        <v>1.253722807045591</v>
+        <v>0.7345918512984895</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1738079717090457</v>
+        <v>0.1042451805284372</v>
       </c>
       <c r="K24">
-        <v>1.136996191799767</v>
+        <v>3.080920059672508</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3988213267771243</v>
+        <v>0.7532933033879985</v>
       </c>
       <c r="N24">
-        <v>1.972657914786215</v>
+        <v>0.8349496192520931</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1563167180824081</v>
+        <v>0.3195745522994571</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1153607105735617</v>
+        <v>0.07558324899201807</v>
       </c>
       <c r="E25">
-        <v>0.1307726158642843</v>
+        <v>0.07608584648700756</v>
       </c>
       <c r="F25">
-        <v>2.014825486329386</v>
+        <v>1.370251820661892</v>
       </c>
       <c r="G25">
-        <v>1.366750585672818</v>
+        <v>1.079770752293157</v>
       </c>
       <c r="H25">
-        <v>1.253744951177183</v>
+        <v>0.6793492978298445</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1733797950247009</v>
+        <v>0.09526736886526521</v>
       </c>
       <c r="K25">
-        <v>0.9823578942436484</v>
+        <v>2.505198616316704</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3645065962029861</v>
+        <v>0.6158921138815288</v>
       </c>
       <c r="N25">
-        <v>2.010162292433145</v>
+        <v>0.9282941243022123</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.26907991858495</v>
+        <v>2.400581107865605</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06634598779137946</v>
+        <v>0.04381255506105219</v>
       </c>
       <c r="E2">
-        <v>0.06938724432843912</v>
+        <v>1.367895835403857</v>
       </c>
       <c r="F2">
-        <v>1.255743094155378</v>
+        <v>0.399002398241656</v>
       </c>
       <c r="G2">
-        <v>0.9788826283973862</v>
+        <v>0.3050335812333032</v>
       </c>
       <c r="H2">
-        <v>0.6433951842945618</v>
+        <v>0.005025247034282421</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02475644256547938</v>
       </c>
       <c r="J2">
-        <v>0.08922966994628467</v>
+        <v>0.1873758237777992</v>
       </c>
       <c r="K2">
-        <v>2.08827807982729</v>
+        <v>0.9000169868121901</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5168132439734237</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.002093691293233</v>
+        <v>0.7578240888210246</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.688304472255723</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.9919871545881165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.235251745105387</v>
+        <v>2.0961108261086</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06018997573858798</v>
+        <v>0.03817212483738075</v>
       </c>
       <c r="E3">
-        <v>0.06503371506705591</v>
+        <v>1.231383775431254</v>
       </c>
       <c r="F3">
-        <v>1.183334585512668</v>
+        <v>0.3521076459012846</v>
       </c>
       <c r="G3">
-        <v>0.9151083893969201</v>
+        <v>0.2660182552741759</v>
       </c>
       <c r="H3">
-        <v>0.6215913044970733</v>
+        <v>0.006829294176107711</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02789001815403891</v>
       </c>
       <c r="J3">
-        <v>0.08544950276884222</v>
+        <v>0.1739690095812563</v>
       </c>
       <c r="K3">
-        <v>1.808880950240365</v>
+        <v>0.8408988328880582</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4506681406079309</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.055065404623081</v>
+        <v>0.6617216643537063</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6008659491651116</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.8808771696070323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2146451270509573</v>
+        <v>1.90858402254122</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05645556572255828</v>
+        <v>0.03471883235534534</v>
       </c>
       <c r="E4">
-        <v>0.06244391255900439</v>
+        <v>1.148287028884582</v>
       </c>
       <c r="F4">
-        <v>1.141173899404407</v>
+        <v>0.3238888592183926</v>
       </c>
       <c r="G4">
-        <v>0.8779681850077594</v>
+        <v>0.2425477688576194</v>
       </c>
       <c r="H4">
-        <v>0.6093530388519497</v>
+        <v>0.00810918847812566</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02998892184071522</v>
       </c>
       <c r="J4">
-        <v>0.08326847504822865</v>
+        <v>0.1660768757825224</v>
       </c>
       <c r="K4">
-        <v>1.638528897214513</v>
+        <v>0.8062788818743343</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4104589677796113</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.088986248316106</v>
+        <v>0.6029792940538528</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5471700174155885</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8143853083109889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2062849929406383</v>
+        <v>1.831794453582489</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05494438003000823</v>
+        <v>0.03334640894527041</v>
       </c>
       <c r="E5">
-        <v>0.0614083175147293</v>
+        <v>1.117057454446481</v>
       </c>
       <c r="F5">
-        <v>1.124534642999251</v>
+        <v>0.3122556167035313</v>
       </c>
       <c r="G5">
-        <v>0.8633059630604834</v>
+        <v>0.2328265767278523</v>
       </c>
       <c r="H5">
-        <v>0.6046390650330551</v>
+        <v>0.008670098616290367</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.03097783502705864</v>
       </c>
       <c r="J5">
-        <v>0.08241300453228106</v>
+        <v>0.1627950063404882</v>
       </c>
       <c r="K5">
-        <v>1.569362279950298</v>
+        <v>0.7947969048909442</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.394162854277468</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.103151398145798</v>
+        <v>0.580177975832413</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5256376527308788</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.7868171893604909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2048989341885061</v>
+        <v>1.818765708146856</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05469406756402151</v>
+        <v>0.03315864835145277</v>
       </c>
       <c r="E6">
-        <v>0.06123751887923135</v>
+        <v>1.114898601345146</v>
       </c>
       <c r="F6">
-        <v>1.121803393842001</v>
+        <v>0.3100065552553488</v>
       </c>
       <c r="G6">
-        <v>0.8608988914082829</v>
+        <v>0.2308925994008391</v>
       </c>
       <c r="H6">
-        <v>0.603872371098845</v>
+        <v>0.008763700064489705</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.03126343076223925</v>
       </c>
       <c r="J6">
-        <v>0.08227291332959297</v>
+        <v>0.1620764864918129</v>
       </c>
       <c r="K6">
-        <v>1.557891158686829</v>
+        <v>0.7956421313535955</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3914619579654328</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.105523923734809</v>
+        <v>0.5777132159391414</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5224952642886009</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.7811984243564467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2145322337728857</v>
+        <v>1.906812986004581</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05643514337941014</v>
+        <v>0.03480973640154872</v>
       </c>
       <c r="E7">
-        <v>0.06242986761059655</v>
+        <v>1.156125200108207</v>
       </c>
       <c r="F7">
-        <v>1.140947350296656</v>
+        <v>0.3228448781860891</v>
       </c>
       <c r="G7">
-        <v>0.8777685753443194</v>
+        <v>0.2415264056033806</v>
       </c>
       <c r="H7">
-        <v>0.6092883784876051</v>
+        <v>0.008111199750418539</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.03030970347666528</v>
       </c>
       <c r="J7">
-        <v>0.08325680539643088</v>
+        <v>0.1655466218458699</v>
       </c>
       <c r="K7">
-        <v>1.637595128234381</v>
+        <v>0.8136061094401654</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4102388460603308</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.089175910589084</v>
+        <v>0.6062759579352814</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.548065490006806</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.811109713030703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2573794338912023</v>
+        <v>2.294733466609387</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06421347084453544</v>
+        <v>0.04201097942501519</v>
       </c>
       <c r="E8">
-        <v>0.06786813431978445</v>
+        <v>1.331722995166629</v>
       </c>
       <c r="F8">
-        <v>1.230276979406185</v>
+        <v>0.381538589519181</v>
       </c>
       <c r="G8">
-        <v>0.9564530506229545</v>
+        <v>0.2903006836484678</v>
       </c>
       <c r="H8">
-        <v>0.6356288190965955</v>
+        <v>0.005602905564574878</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.02616936373710121</v>
       </c>
       <c r="J8">
-        <v>0.08789603486388131</v>
+        <v>0.1820422865864089</v>
       </c>
       <c r="K8">
-        <v>1.991663011921844</v>
+        <v>0.8893707420794357</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4939149278075519</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.020063087223317</v>
+        <v>0.7294296285903386</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6597351651558796</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.9494770910754369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3428993599410717</v>
+        <v>3.052494928714282</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07986659128088291</v>
+        <v>0.05603122909045766</v>
       </c>
       <c r="E9">
-        <v>0.07925036488114756</v>
+        <v>1.66712214855157</v>
       </c>
       <c r="F9">
-        <v>1.425457085008972</v>
+        <v>0.5033831743871175</v>
       </c>
       <c r="G9">
-        <v>1.128440629279339</v>
+        <v>0.3919599005099599</v>
       </c>
       <c r="H9">
-        <v>0.6971703357652075</v>
+        <v>0.002172639319075298</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01905353380242225</v>
       </c>
       <c r="J9">
-        <v>0.09819616612586657</v>
+        <v>0.2182053049899082</v>
       </c>
       <c r="K9">
-        <v>2.697876376224741</v>
+        <v>1.03824217459676</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6618086449091365</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8960341485045014</v>
+        <v>0.9667772328047306</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.8766499151116989</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.241473517814882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4069366725482979</v>
+        <v>3.609866334227263</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09167112559990898</v>
+        <v>0.06711950472610084</v>
       </c>
       <c r="E10">
-        <v>0.08813642275973521</v>
+        <v>1.972876147633144</v>
       </c>
       <c r="F10">
-        <v>1.583716981589561</v>
+        <v>0.5914976521239552</v>
       </c>
       <c r="G10">
-        <v>1.268116175048362</v>
+        <v>0.4647069899050251</v>
       </c>
       <c r="H10">
-        <v>0.7495711618691701</v>
+        <v>0.0009426662677043396</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01501860112663245</v>
       </c>
       <c r="J10">
-        <v>0.1066347717881584</v>
+        <v>0.2440479554711743</v>
       </c>
       <c r="K10">
-        <v>3.227600916339611</v>
+        <v>1.193744165723601</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7883899422833736</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8125499999761985</v>
+        <v>1.129631418948378</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.031875309783182</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.450327180237736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4364007128723699</v>
+        <v>3.889413373269861</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09712212228323125</v>
+        <v>0.07827983608172673</v>
       </c>
       <c r="E11">
-        <v>0.09231347754648311</v>
+        <v>2.619520887343782</v>
       </c>
       <c r="F11">
-        <v>1.659592061494834</v>
+        <v>0.5880373781052413</v>
       </c>
       <c r="G11">
-        <v>1.335169665968834</v>
+        <v>0.4542139206162545</v>
       </c>
       <c r="H11">
-        <v>0.7752537547160614</v>
+        <v>0.01930845516854163</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0139659933018601</v>
       </c>
       <c r="J11">
-        <v>0.1106964600346032</v>
+        <v>0.2326279863532363</v>
       </c>
       <c r="K11">
-        <v>3.471837628377159</v>
+        <v>1.600740788551761</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8468995142041393</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7763826110638199</v>
+        <v>1.079548737640323</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.060552390110558</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.4044563403111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4476120249692741</v>
+        <v>4.010002129083432</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0991992536424533</v>
+        <v>0.08554151182012504</v>
       </c>
       <c r="E12">
-        <v>0.09391648482644754</v>
+        <v>3.15146632590168</v>
       </c>
       <c r="F12">
-        <v>1.688941867651181</v>
+        <v>0.5677388059591664</v>
       </c>
       <c r="G12">
-        <v>1.361123319300674</v>
+        <v>0.4318284307963722</v>
       </c>
       <c r="H12">
-        <v>0.7852704790230121</v>
+        <v>0.05790032025159064</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01325546084785589</v>
       </c>
       <c r="J12">
-        <v>0.1122696366567908</v>
+        <v>0.2182772659732137</v>
       </c>
       <c r="K12">
-        <v>3.564874060079489</v>
+        <v>1.944254981133852</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8692091799744048</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7629614396729458</v>
+        <v>0.9985379984109102</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.049187297012026</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.32709120549913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4451949698097479</v>
+        <v>4.012841335052144</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09875130800026</v>
+        <v>0.09032809918350893</v>
       </c>
       <c r="E13">
-        <v>0.09357027201247803</v>
+        <v>3.633595610427932</v>
       </c>
       <c r="F13">
-        <v>1.682592392129592</v>
+        <v>0.5314387980436379</v>
       </c>
       <c r="G13">
-        <v>1.355507785518455</v>
+        <v>0.3971691386487493</v>
       </c>
       <c r="H13">
-        <v>0.7830998042818749</v>
+        <v>0.113637110506005</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01316116988139804</v>
       </c>
       <c r="J13">
-        <v>0.1119292122660838</v>
+        <v>0.1998511100016884</v>
       </c>
       <c r="K13">
-        <v>3.544811211482511</v>
+        <v>2.265929405832168</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8643972343070487</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7658394726185165</v>
+        <v>0.8953625017267939</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.008303399851499</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.215070219930567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4373219576441727</v>
+        <v>3.961093388373513</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09729274158174661</v>
+        <v>0.09260516731543333</v>
       </c>
       <c r="E14">
-        <v>0.09244492079673705</v>
+        <v>3.956709882469909</v>
       </c>
       <c r="F14">
-        <v>1.661993951531798</v>
+        <v>0.4986970774294761</v>
       </c>
       <c r="G14">
-        <v>1.337293283526918</v>
+        <v>0.3673373961440234</v>
       </c>
       <c r="H14">
-        <v>0.776071841685706</v>
+        <v>0.1629916886268177</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01345091014742472</v>
       </c>
       <c r="J14">
-        <v>0.1108251642795821</v>
+        <v>0.1850609139465433</v>
       </c>
       <c r="K14">
-        <v>3.479480296591476</v>
+        <v>2.487677197206111</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8487317487906623</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7752728524455108</v>
+        <v>0.8150009162074241</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.9668190050933774</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.120839287200994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.432506718145774</v>
+        <v>3.922813873813084</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09640105553759781</v>
+        <v>0.09262581898871503</v>
       </c>
       <c r="E15">
-        <v>0.0917584359998429</v>
+        <v>4.020470196707976</v>
       </c>
       <c r="F15">
-        <v>1.649459090458379</v>
+        <v>0.4870280139096081</v>
       </c>
       <c r="G15">
-        <v>1.326211326196386</v>
+        <v>0.3571102039569354</v>
       </c>
       <c r="H15">
-        <v>0.7718057564503624</v>
+        <v>0.1755282732843</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01380037873524209</v>
       </c>
       <c r="J15">
-        <v>0.1101535695446998</v>
+        <v>0.1804263278430653</v>
       </c>
       <c r="K15">
-        <v>3.439537267701155</v>
+        <v>2.535217795913937</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8391567852921895</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.781087282844684</v>
+        <v>0.7919130412040829</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.9510660742983035</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.089426212143934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4050183362729314</v>
+        <v>3.680088607235405</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09131662986739997</v>
+        <v>0.08677742357033935</v>
       </c>
       <c r="E16">
-        <v>0.08786631013597557</v>
+        <v>3.780926380919254</v>
       </c>
       <c r="F16">
-        <v>1.57884143201413</v>
+        <v>0.4550612415585391</v>
       </c>
       <c r="G16">
-        <v>1.263809510702771</v>
+        <v>0.3315286595820481</v>
       </c>
       <c r="H16">
-        <v>0.7479320383773143</v>
+        <v>0.1631595415732079</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01560482308183886</v>
       </c>
       <c r="J16">
-        <v>0.1063740711648862</v>
+        <v>0.1722634597389288</v>
       </c>
       <c r="K16">
-        <v>3.211711802126729</v>
+        <v>2.393593675010123</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7845865316460774</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.814951245096065</v>
+        <v>0.7476119550414069</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.894178596551761</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.017873128655168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3882445760449968</v>
+        <v>3.522015575707314</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08821915032809358</v>
+        <v>0.08109290747753306</v>
       </c>
       <c r="E17">
-        <v>0.08551440991113779</v>
+        <v>3.423375984249816</v>
       </c>
       <c r="F17">
-        <v>1.53655459543775</v>
+        <v>0.4482113762362729</v>
       </c>
       <c r="G17">
-        <v>1.226466803944902</v>
+        <v>0.3279525727066783</v>
       </c>
       <c r="H17">
-        <v>0.7337766115923898</v>
+        <v>0.1257363649163494</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01691099544727681</v>
       </c>
       <c r="J17">
-        <v>0.1041146531693542</v>
+        <v>0.1739941708440682</v>
       </c>
       <c r="K17">
-        <v>3.072838534479502</v>
+        <v>2.166617786145892</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7513605942787152</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8361991049404409</v>
+        <v>0.7559053575877499</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.8726142349624482</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.013749926652196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3786277253799142</v>
+        <v>3.419444794437482</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08644510686908546</v>
+        <v>0.07492915030013592</v>
       </c>
       <c r="E18">
-        <v>0.08417422060041702</v>
+        <v>2.941427341336833</v>
       </c>
       <c r="F18">
-        <v>1.512593847903815</v>
+        <v>0.4627443882338724</v>
       </c>
       <c r="G18">
-        <v>1.205315377998602</v>
+        <v>0.3437335985418599</v>
       </c>
       <c r="H18">
-        <v>0.7258067753531634</v>
+        <v>0.0732043708013066</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01750203187753918</v>
       </c>
       <c r="J18">
-        <v>0.1028358808448928</v>
+        <v>0.1847863675304779</v>
       </c>
       <c r="K18">
-        <v>2.993264146903613</v>
+        <v>1.850324581322454</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7323358730852405</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8485897453962714</v>
+        <v>0.8089318683487647</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8777046608422907</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.069676405728785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3753767682488984</v>
+        <v>3.367592326908834</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08584570424057603</v>
+        <v>0.06924929210308051</v>
       </c>
       <c r="E19">
-        <v>0.08372255851688593</v>
+        <v>2.456287748585609</v>
       </c>
       <c r="F19">
-        <v>1.504541519893749</v>
+        <v>0.4922322334562637</v>
       </c>
       <c r="G19">
-        <v>1.198208408857028</v>
+        <v>0.3732148380225624</v>
       </c>
       <c r="H19">
-        <v>0.7231371128409307</v>
+        <v>0.02800247480045215</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01794822704485632</v>
       </c>
       <c r="J19">
-        <v>0.1024063918109661</v>
+        <v>0.2014976105658945</v>
       </c>
       <c r="K19">
-        <v>2.96637114673905</v>
+        <v>1.534763035329107</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7259086117760702</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8528136857934889</v>
+        <v>0.9027151086389438</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9059496996841361</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.167089554651938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3900269237145721</v>
+        <v>3.461414001905496</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08854809238172834</v>
+        <v>0.06457548388262779</v>
       </c>
       <c r="E20">
-        <v>0.08576346058703876</v>
+        <v>1.921374404434118</v>
       </c>
       <c r="F20">
-        <v>1.541018272211673</v>
+        <v>0.565134122028212</v>
       </c>
       <c r="G20">
-        <v>1.230407750468828</v>
+        <v>0.4424040495879353</v>
       </c>
       <c r="H20">
-        <v>0.7352655000991035</v>
+        <v>0.001164184831725645</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01690899820859926</v>
       </c>
       <c r="J20">
-        <v>0.1043529996591275</v>
+        <v>0.2355212492843606</v>
       </c>
       <c r="K20">
-        <v>3.087590034452489</v>
+        <v>1.178817199494631</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7548885162152459</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8339195981149778</v>
+        <v>1.097584820524901</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9946715638478096</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.385062443600702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4396329387156044</v>
+        <v>3.884348218348748</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09772079529330568</v>
+        <v>0.0720393000584707</v>
       </c>
       <c r="E21">
-        <v>0.09277487136359497</v>
+        <v>2.072878395346464</v>
       </c>
       <c r="F21">
-        <v>1.668026952394726</v>
+        <v>0.6426815960564198</v>
       </c>
       <c r="G21">
-        <v>1.34262759610445</v>
+        <v>0.5080557150920981</v>
       </c>
       <c r="H21">
-        <v>0.7781280005453368</v>
+        <v>0.000279349574918597</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01392860191491785</v>
       </c>
       <c r="J21">
-        <v>0.1111484716101998</v>
+        <v>0.2606382216179384</v>
       </c>
       <c r="K21">
-        <v>3.498653985489398</v>
+        <v>1.245805420083158</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8533287504344997</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7724944659961714</v>
+        <v>1.244221078096871</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.120847254368343</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.57720991711389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4723707312576835</v>
+        <v>4.163112841529255</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1037919005761836</v>
+        <v>0.07712770110757106</v>
       </c>
       <c r="E22">
-        <v>0.09748206702738216</v>
+        <v>2.187710651977909</v>
       </c>
       <c r="F22">
-        <v>1.754665650202909</v>
+        <v>0.6929497887391989</v>
       </c>
       <c r="G22">
-        <v>1.419275371344469</v>
+        <v>0.550431167608096</v>
       </c>
       <c r="H22">
-        <v>0.8078527720260524</v>
+        <v>5.06346864709295E-05</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01186301312366211</v>
       </c>
       <c r="J22">
-        <v>0.1157959290458095</v>
+        <v>0.2768131944650065</v>
       </c>
       <c r="K22">
-        <v>3.77055258345581</v>
+        <v>1.297835032469209</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9185697211798356</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7339579515427204</v>
+        <v>1.327988057698661</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.199314340513027</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.701151928247299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4548668114527175</v>
+        <v>4.015227482379487</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1005442031523245</v>
+        <v>0.07427835023089813</v>
       </c>
       <c r="E23">
-        <v>0.094957664462342</v>
+        <v>2.116162156114356</v>
       </c>
       <c r="F23">
-        <v>1.708071633267878</v>
+        <v>0.6670326550064658</v>
       </c>
       <c r="G23">
-        <v>1.378044455632022</v>
+        <v>0.5287401390538093</v>
       </c>
       <c r="H23">
-        <v>0.7918222710471241</v>
+        <v>0.0001510385984943019</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01260328333454108</v>
       </c>
       <c r="J23">
-        <v>0.1132955452747311</v>
+        <v>0.2686767082355743</v>
       </c>
       <c r="K23">
-        <v>3.625109783847108</v>
+        <v>1.260279636921496</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8836594974011334</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7543733731132534</v>
+        <v>1.278872834086457</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.155987713527665</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.638002329120212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3892210419059552</v>
+        <v>3.453441295198559</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08839935678641098</v>
+        <v>0.06373797193753461</v>
       </c>
       <c r="E24">
-        <v>0.08565082769608523</v>
+        <v>1.862798484058416</v>
       </c>
       <c r="F24">
-        <v>1.538999156577589</v>
+        <v>0.5694295270256049</v>
       </c>
       <c r="G24">
-        <v>1.228625064149441</v>
+        <v>0.4469276618530387</v>
       </c>
       <c r="H24">
-        <v>0.7345918512984895</v>
+        <v>0.001027609874985402</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.0163811883125442</v>
       </c>
       <c r="J24">
-        <v>0.1042451805284372</v>
+        <v>0.2380905792625612</v>
       </c>
       <c r="K24">
-        <v>3.080920059672508</v>
+        <v>1.137134616123916</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7532933033879985</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8349496192520931</v>
+        <v>1.100515861936145</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.9943671908435689</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.400019000673097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3195745522994571</v>
+        <v>2.84655007409458</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07558324899201807</v>
+        <v>0.05242568144637261</v>
       </c>
       <c r="E25">
-        <v>0.07608584648700756</v>
+        <v>1.591029393747974</v>
       </c>
       <c r="F25">
-        <v>1.370251820661892</v>
+        <v>0.468197029295645</v>
       </c>
       <c r="G25">
-        <v>1.079770752293157</v>
+        <v>0.3623113543167875</v>
       </c>
       <c r="H25">
-        <v>0.6793492978298445</v>
+        <v>0.00291773775750398</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.02131779951542256</v>
       </c>
       <c r="J25">
-        <v>0.09526736886526521</v>
+        <v>0.2072087765484127</v>
       </c>
       <c r="K25">
-        <v>2.505198616316704</v>
+        <v>1.010558920160051</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6158921138815288</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9282941243022123</v>
+        <v>0.9089002760100016</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.8201160029893089</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.155398528679655</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.400581107865605</v>
+        <v>2.434442104091261</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04381255506105219</v>
+        <v>0.03925741454337128</v>
       </c>
       <c r="E2">
-        <v>1.367895835403857</v>
+        <v>0.9987533022726467</v>
       </c>
       <c r="F2">
-        <v>0.399002398241656</v>
+        <v>0.4402209557442731</v>
       </c>
       <c r="G2">
-        <v>0.3050335812333032</v>
+        <v>0.3462228364937658</v>
       </c>
       <c r="H2">
-        <v>0.005025247034282421</v>
+        <v>0.003595951767840999</v>
       </c>
       <c r="I2">
-        <v>0.02475644256547938</v>
+        <v>0.01735225745998559</v>
       </c>
       <c r="J2">
-        <v>0.1873758237777992</v>
+        <v>0.2562496278032569</v>
       </c>
       <c r="K2">
-        <v>0.9000169868121901</v>
+        <v>0.5807329719525143</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1967111643627035</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2392113145680526</v>
       </c>
       <c r="N2">
-        <v>0.7578240888210246</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.688304472255723</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.6075871073935986</v>
       </c>
       <c r="Q2">
-        <v>0.9919871545881165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6394364916569657</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.129838433235705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.0961108261086</v>
+        <v>2.125308763469036</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03817212483738075</v>
+        <v>0.03405772106174254</v>
       </c>
       <c r="E3">
-        <v>1.231383775431254</v>
+        <v>0.8968453054962993</v>
       </c>
       <c r="F3">
-        <v>0.3521076459012846</v>
+        <v>0.3901069503297947</v>
       </c>
       <c r="G3">
-        <v>0.2660182552741759</v>
+        <v>0.3013059542640804</v>
       </c>
       <c r="H3">
-        <v>0.006829294176107711</v>
+        <v>0.004985908904683825</v>
       </c>
       <c r="I3">
-        <v>0.02789001815403891</v>
+        <v>0.01953119897208078</v>
       </c>
       <c r="J3">
-        <v>0.1739690095812563</v>
+        <v>0.241264068607876</v>
       </c>
       <c r="K3">
-        <v>0.8408988328880582</v>
+        <v>0.5506611840243067</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1785032113514866</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2368196837207606</v>
       </c>
       <c r="N3">
-        <v>0.6617216643537063</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6008659491651116</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.5267082196160118</v>
       </c>
       <c r="Q3">
-        <v>0.8808771696070323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5568573423157304</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.008100227535863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.90858402254122</v>
+        <v>1.934813631327188</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03471883235534534</v>
+        <v>0.03087843790041234</v>
       </c>
       <c r="E4">
-        <v>1.148287028884582</v>
+        <v>0.8350695125053562</v>
       </c>
       <c r="F4">
-        <v>0.3238888592183926</v>
+        <v>0.3598200680224224</v>
       </c>
       <c r="G4">
-        <v>0.2425477688576194</v>
+        <v>0.2742103041805422</v>
       </c>
       <c r="H4">
-        <v>0.00810918847812566</v>
+        <v>0.00598036736506858</v>
       </c>
       <c r="I4">
-        <v>0.02998892184071522</v>
+        <v>0.02100736876595999</v>
       </c>
       <c r="J4">
-        <v>0.1660768757825224</v>
+        <v>0.2322246430362895</v>
       </c>
       <c r="K4">
-        <v>0.8062788818743343</v>
+        <v>0.5336172570382374</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1685092823939414</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2357343108839771</v>
       </c>
       <c r="N4">
-        <v>0.6029792940538528</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5471700174155885</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.4773711917704446</v>
       </c>
       <c r="Q4">
-        <v>0.8143853083109889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5061548422037419</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.9347697594361648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.831794453582489</v>
+        <v>1.856830186760675</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03334640894527041</v>
+        <v>0.02961032605951885</v>
       </c>
       <c r="E5">
-        <v>1.117057454446481</v>
+        <v>0.8116608513955725</v>
       </c>
       <c r="F5">
-        <v>0.3122556167035313</v>
+        <v>0.3473637236949756</v>
       </c>
       <c r="G5">
-        <v>0.2328265767278523</v>
+        <v>0.2630509904629292</v>
       </c>
       <c r="H5">
-        <v>0.008670098616290367</v>
+        <v>0.006419194437027972</v>
       </c>
       <c r="I5">
-        <v>0.03097783502705864</v>
+        <v>0.02174668330806373</v>
       </c>
       <c r="J5">
-        <v>0.1627950063404882</v>
+        <v>0.228451135831051</v>
       </c>
       <c r="K5">
-        <v>0.7947969048909442</v>
+        <v>0.5282050272399132</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1650461132257703</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2359554366333079</v>
       </c>
       <c r="N5">
-        <v>0.580177975832413</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5256376527308788</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.4581112345616845</v>
       </c>
       <c r="Q5">
-        <v>0.7868171893604909</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4857646550007146</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.9044652004729699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.818765708146856</v>
+        <v>1.843650776240281</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03315864835145277</v>
+        <v>0.02942985769008999</v>
       </c>
       <c r="E6">
-        <v>1.114898601345146</v>
+        <v>0.8097115505823638</v>
       </c>
       <c r="F6">
-        <v>0.3100065552553488</v>
+        <v>0.3450274953157191</v>
       </c>
       <c r="G6">
-        <v>0.2308925994008391</v>
+        <v>0.2609281078534025</v>
       </c>
       <c r="H6">
-        <v>0.008763700064489705</v>
+        <v>0.00649406591652097</v>
       </c>
       <c r="I6">
-        <v>0.03126343076223925</v>
+        <v>0.02200764430894431</v>
       </c>
       <c r="J6">
-        <v>0.1620764864918129</v>
+        <v>0.2276705010855977</v>
       </c>
       <c r="K6">
-        <v>0.7956421313535955</v>
+        <v>0.5287859654496074</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1648771603247212</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2366984177464637</v>
       </c>
       <c r="N6">
-        <v>0.5777132159391414</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5224952642886009</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.455858387985387</v>
       </c>
       <c r="Q6">
-        <v>0.7811984243564467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4827126283211385</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8985407334643867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.906812986004581</v>
+        <v>1.933235684689009</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03480973640154872</v>
+        <v>0.03105894490217764</v>
       </c>
       <c r="E7">
-        <v>1.156125200108207</v>
+        <v>0.8392688930803729</v>
       </c>
       <c r="F7">
-        <v>0.3228448781860891</v>
+        <v>0.3578995458805565</v>
       </c>
       <c r="G7">
-        <v>0.2415264056033806</v>
+        <v>0.27635999257393</v>
       </c>
       <c r="H7">
-        <v>0.008111199750418539</v>
+        <v>0.005989297771571915</v>
       </c>
       <c r="I7">
-        <v>0.03030970347666528</v>
+        <v>0.02137262997977185</v>
       </c>
       <c r="J7">
-        <v>0.1655466218458699</v>
+        <v>0.2268760593212846</v>
       </c>
       <c r="K7">
-        <v>0.8136061094401654</v>
+        <v>0.5378745851594147</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.169659937333396</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2377721792234411</v>
       </c>
       <c r="N7">
-        <v>0.6062759579352814</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.548065490006806</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.4793589284091269</v>
       </c>
       <c r="Q7">
-        <v>0.811109713030703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5066769493249126</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.9285709044627026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.294733466609387</v>
+        <v>2.327437868643983</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04201097942501519</v>
+        <v>0.03796069300362603</v>
       </c>
       <c r="E8">
-        <v>1.331722995166629</v>
+        <v>0.9679913030682457</v>
       </c>
       <c r="F8">
-        <v>0.381538589519181</v>
+        <v>0.4184904772377323</v>
       </c>
       <c r="G8">
-        <v>0.2903006836484678</v>
+        <v>0.3398980033751258</v>
       </c>
       <c r="H8">
-        <v>0.005602905564574878</v>
+        <v>0.004052163819053045</v>
       </c>
       <c r="I8">
-        <v>0.02616936373710121</v>
+        <v>0.01850943851183473</v>
       </c>
       <c r="J8">
-        <v>0.1820422865864089</v>
+        <v>0.2344654365413419</v>
       </c>
       <c r="K8">
-        <v>0.8893707420794357</v>
+        <v>0.5766689551254842</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1922207723066762</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2412006136564315</v>
       </c>
       <c r="N8">
-        <v>0.7294296285903386</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6597351651558796</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.5819685751125121</v>
       </c>
       <c r="Q8">
-        <v>0.9494770910754369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6117875452638728</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.073241893630865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.052494928714282</v>
+        <v>3.096060703920443</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05603122909045766</v>
+        <v>0.05104648742197782</v>
       </c>
       <c r="E9">
-        <v>1.66712214855157</v>
+        <v>1.219982243962932</v>
       </c>
       <c r="F9">
-        <v>0.5033831743871175</v>
+        <v>0.546665455678756</v>
       </c>
       <c r="G9">
-        <v>0.3919599005099599</v>
+        <v>0.4591391677474377</v>
       </c>
       <c r="H9">
-        <v>0.002172639319075298</v>
+        <v>0.001451857721775363</v>
       </c>
       <c r="I9">
-        <v>0.01905353380242225</v>
+        <v>0.01349978645209493</v>
       </c>
       <c r="J9">
-        <v>0.2182053049899082</v>
+        <v>0.2687951248480971</v>
       </c>
       <c r="K9">
-        <v>1.03824217459676</v>
+        <v>0.6557018808600787</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2432608337725668</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2473586732256123</v>
       </c>
       <c r="N9">
-        <v>0.9667772328047306</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8766499151116989</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.7824319788169305</v>
       </c>
       <c r="Q9">
-        <v>1.241473517814882</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8167766760245598</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.386152754528723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.609866334227263</v>
+        <v>3.66201313598873</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06711950472610084</v>
+        <v>0.0620154107005888</v>
       </c>
       <c r="E10">
-        <v>1.972876147633144</v>
+        <v>1.441652146758443</v>
       </c>
       <c r="F10">
-        <v>0.5914976521239552</v>
+        <v>0.6336731060167153</v>
       </c>
       <c r="G10">
-        <v>0.4647069899050251</v>
+        <v>0.5642843950116685</v>
       </c>
       <c r="H10">
-        <v>0.0009426662677043396</v>
+        <v>0.0006346673847335005</v>
       </c>
       <c r="I10">
-        <v>0.01501860112663245</v>
+        <v>0.01083164072873011</v>
       </c>
       <c r="J10">
-        <v>0.2440479554711743</v>
+        <v>0.2654505791366404</v>
       </c>
       <c r="K10">
-        <v>1.193744165723601</v>
+        <v>0.742967299994433</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.294643378315314</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2622492158169365</v>
       </c>
       <c r="N10">
-        <v>1.129631418948378</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.031875309783182</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.9136041285061651</v>
       </c>
       <c r="Q10">
-        <v>1.450327180237736</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.961195802282262</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.591255764506059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.889413373269861</v>
+        <v>3.953600932077109</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07827983608172673</v>
+        <v>0.07308672434253083</v>
       </c>
       <c r="E11">
-        <v>2.619520887343782</v>
+        <v>1.873909664405801</v>
       </c>
       <c r="F11">
-        <v>0.5880373781052413</v>
+        <v>0.6259300565133685</v>
       </c>
       <c r="G11">
-        <v>0.4542139206162545</v>
+        <v>0.6059519550732944</v>
       </c>
       <c r="H11">
-        <v>0.01930845516854163</v>
+        <v>0.01913589508149016</v>
       </c>
       <c r="I11">
-        <v>0.0139659933018601</v>
+        <v>0.01055796831721523</v>
       </c>
       <c r="J11">
-        <v>0.2326279863532363</v>
+        <v>0.2043316624541234</v>
       </c>
       <c r="K11">
-        <v>1.600740788551761</v>
+        <v>0.966581341403824</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3874660412135498</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3374890247371169</v>
       </c>
       <c r="N11">
-        <v>1.079548737640323</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.060552390110558</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.8274486754004329</v>
       </c>
       <c r="Q11">
-        <v>1.4044563403111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.9735021055200406</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.529917963955825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.010002129083432</v>
+        <v>4.082389496052201</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08554151182012504</v>
+        <v>0.07985338369027062</v>
       </c>
       <c r="E12">
-        <v>3.15146632590168</v>
+        <v>2.226998660830674</v>
       </c>
       <c r="F12">
-        <v>0.5677388059591664</v>
+        <v>0.6056288934940994</v>
       </c>
       <c r="G12">
-        <v>0.4318284307963722</v>
+        <v>0.6078018396352434</v>
       </c>
       <c r="H12">
-        <v>0.05790032025159064</v>
+        <v>0.05780000011885988</v>
       </c>
       <c r="I12">
-        <v>0.01325546084785589</v>
+        <v>0.01018882797659959</v>
       </c>
       <c r="J12">
-        <v>0.2182772659732137</v>
+        <v>0.1725215316497568</v>
       </c>
       <c r="K12">
-        <v>1.944254981133852</v>
+        <v>1.152671899724922</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.460975270657876</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.4034910134629328</v>
       </c>
       <c r="N12">
-        <v>0.9985379984109102</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.049187297012026</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.7288024447823318</v>
       </c>
       <c r="Q12">
-        <v>1.32709120549913</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9516180315319076</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.451217991125901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.012841335052144</v>
+        <v>4.090980499957482</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09032809918350893</v>
+        <v>0.08330580306705571</v>
       </c>
       <c r="E13">
-        <v>3.633595610427932</v>
+        <v>2.547854379907193</v>
       </c>
       <c r="F13">
-        <v>0.5314387980436379</v>
+        <v>0.5752701187996792</v>
       </c>
       <c r="G13">
-        <v>0.3971691386487493</v>
+        <v>0.5690813956403247</v>
       </c>
       <c r="H13">
-        <v>0.113637110506005</v>
+        <v>0.1135787397013672</v>
       </c>
       <c r="I13">
-        <v>0.01316116988139804</v>
+        <v>0.01021585796202018</v>
       </c>
       <c r="J13">
-        <v>0.1998511100016884</v>
+        <v>0.164774552602502</v>
       </c>
       <c r="K13">
-        <v>2.265929405832168</v>
+        <v>1.321911307459459</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5228290914919782</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.4680151631273972</v>
       </c>
       <c r="N13">
-        <v>0.8953625017267939</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.008303399851499</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.6203058973762268</v>
       </c>
       <c r="Q13">
-        <v>1.215070219930567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.90407787973799</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.356643111505861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.961093388373513</v>
+        <v>4.042207189060264</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09260516731543333</v>
+        <v>0.08423411969337735</v>
       </c>
       <c r="E14">
-        <v>3.956709882469909</v>
+        <v>2.763436934539186</v>
       </c>
       <c r="F14">
-        <v>0.4986970774294761</v>
+        <v>0.5490651227021601</v>
       </c>
       <c r="G14">
-        <v>0.3673373961440234</v>
+        <v>0.5247284379477435</v>
       </c>
       <c r="H14">
-        <v>0.1629916886268177</v>
+        <v>0.1629543867508403</v>
       </c>
       <c r="I14">
-        <v>0.01345091014742472</v>
+        <v>0.01051619243161106</v>
       </c>
       <c r="J14">
-        <v>0.1850609139465433</v>
+        <v>0.168773140138569</v>
       </c>
       <c r="K14">
-        <v>2.487677197206111</v>
+        <v>1.435636787503185</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5614207900075314</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.5141022664829009</v>
       </c>
       <c r="N14">
-        <v>0.8150009162074241</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9668190050933774</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.5417781711552294</v>
       </c>
       <c r="Q14">
-        <v>1.120839287200994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.8596434766534955</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.281837382818594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.922813873813084</v>
+        <v>4.004158856876757</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09262581898871503</v>
+        <v>0.08376385922462504</v>
       </c>
       <c r="E15">
-        <v>4.020470196707976</v>
+        <v>2.806264544325842</v>
       </c>
       <c r="F15">
-        <v>0.4870280139096081</v>
+        <v>0.5400438125967568</v>
       </c>
       <c r="G15">
-        <v>0.3571102039569354</v>
+        <v>0.5061537625402934</v>
       </c>
       <c r="H15">
-        <v>0.1755282732843</v>
+        <v>0.1754900337759722</v>
       </c>
       <c r="I15">
-        <v>0.01380037873524209</v>
+        <v>0.01084138070205753</v>
       </c>
       <c r="J15">
-        <v>0.1804263278430653</v>
+        <v>0.1737724220311065</v>
       </c>
       <c r="K15">
-        <v>2.535217795913937</v>
+        <v>1.458887843555146</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5678125623303885</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.5248998001978933</v>
       </c>
       <c r="N15">
-        <v>0.7919130412040829</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9510660742983035</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.5208169994716201</v>
       </c>
       <c r="Q15">
-        <v>1.089426212143934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.8438487538097377</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.258429639997473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.680088607235405</v>
+        <v>3.756071737419006</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08677742357033935</v>
+        <v>0.07689593614715307</v>
       </c>
       <c r="E16">
-        <v>3.780926380919254</v>
+        <v>2.647983783818717</v>
       </c>
       <c r="F16">
-        <v>0.4550612415585391</v>
+        <v>0.5162554302130289</v>
       </c>
       <c r="G16">
-        <v>0.3315286595820481</v>
+        <v>0.4405305164323039</v>
       </c>
       <c r="H16">
-        <v>0.1631595415732079</v>
+        <v>0.1630217921520938</v>
       </c>
       <c r="I16">
-        <v>0.01560482308183886</v>
+        <v>0.01212220026644584</v>
       </c>
       <c r="J16">
-        <v>0.1722634597389288</v>
+        <v>0.2096678980744144</v>
       </c>
       <c r="K16">
-        <v>2.393593675010123</v>
+        <v>1.374179939148192</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5243995915698676</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.504054365122002</v>
       </c>
       <c r="N16">
-        <v>0.7476119550414069</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.894178596551761</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.4936102879156579</v>
       </c>
       <c r="Q16">
-        <v>1.017873128655168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7941585356441578</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.212984619390795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.522015575707314</v>
+        <v>3.592366437680596</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08109290747753306</v>
+        <v>0.07143310739494524</v>
       </c>
       <c r="E17">
-        <v>3.423375984249816</v>
+        <v>2.408369428695735</v>
       </c>
       <c r="F17">
-        <v>0.4482113762362729</v>
+        <v>0.5107906618895726</v>
       </c>
       <c r="G17">
-        <v>0.3279525727066783</v>
+        <v>0.4183102757655774</v>
       </c>
       <c r="H17">
-        <v>0.1257363649163494</v>
+        <v>0.12547655966344</v>
       </c>
       <c r="I17">
-        <v>0.01691099544727681</v>
+        <v>0.01300087246826287</v>
       </c>
       <c r="J17">
-        <v>0.1739941708440682</v>
+        <v>0.2308043243897657</v>
       </c>
       <c r="K17">
-        <v>2.166617786145892</v>
+        <v>1.250474407447228</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4721253672889532</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.4634315433946838</v>
       </c>
       <c r="N17">
-        <v>0.7559053575877499</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8726142349624482</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.5133250681410715</v>
       </c>
       <c r="Q17">
-        <v>1.013749926652196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7794150662668287</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.21439226460609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.419444794437482</v>
+        <v>3.483143267453499</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07492915030013592</v>
+        <v>0.066225863390315</v>
       </c>
       <c r="E18">
-        <v>2.941427341336833</v>
+        <v>2.085756974760159</v>
       </c>
       <c r="F18">
-        <v>0.4627443882338724</v>
+        <v>0.5230697373546818</v>
       </c>
       <c r="G18">
-        <v>0.3437335985418599</v>
+        <v>0.4236928732022562</v>
       </c>
       <c r="H18">
-        <v>0.0732043708013066</v>
+        <v>0.07281048203281415</v>
       </c>
       <c r="I18">
-        <v>0.01750203187753918</v>
+        <v>0.0131773916659812</v>
       </c>
       <c r="J18">
-        <v>0.1847863675304779</v>
+        <v>0.2489402171555071</v>
       </c>
       <c r="K18">
-        <v>1.850324581322454</v>
+        <v>1.082528115330433</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4075622094201847</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.4022924454470882</v>
       </c>
       <c r="N18">
-        <v>0.8089318683487647</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8777046608422907</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.5772494594192921</v>
       </c>
       <c r="Q18">
-        <v>1.069676405728785</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7924048689121861</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.265058663949162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.367592326908834</v>
+        <v>3.424650506090643</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06924929210308051</v>
+        <v>0.06175747196888892</v>
       </c>
       <c r="E19">
-        <v>2.456287748585609</v>
+        <v>1.761244999024782</v>
       </c>
       <c r="F19">
-        <v>0.4922322334562637</v>
+        <v>0.5483828439416172</v>
       </c>
       <c r="G19">
-        <v>0.3732148380225624</v>
+        <v>0.447162888414752</v>
       </c>
       <c r="H19">
-        <v>0.02800247480045215</v>
+        <v>0.02752164084294151</v>
       </c>
       <c r="I19">
-        <v>0.01794822704485632</v>
+        <v>0.01341685582983398</v>
       </c>
       <c r="J19">
-        <v>0.2014976105658945</v>
+        <v>0.2661542292715779</v>
       </c>
       <c r="K19">
-        <v>1.534763035329107</v>
+        <v>0.9174131829931085</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3469962889825737</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3394392539989752</v>
       </c>
       <c r="N19">
-        <v>0.9027151086389438</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9059496996841361</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.6813034779114275</v>
       </c>
       <c r="Q19">
-        <v>1.167089554651938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8286174308541874</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.351093446748081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.461414001905496</v>
+        <v>3.51155797132941</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06457548388262779</v>
+        <v>0.05897025803169242</v>
       </c>
       <c r="E20">
-        <v>1.921374404434118</v>
+        <v>1.405278013838341</v>
       </c>
       <c r="F20">
-        <v>0.565134122028212</v>
+        <v>0.6118109084332133</v>
       </c>
       <c r="G20">
-        <v>0.4424040495879353</v>
+        <v>0.5223697647845995</v>
       </c>
       <c r="H20">
-        <v>0.001164184831725645</v>
+        <v>0.0007669629951423396</v>
       </c>
       <c r="I20">
-        <v>0.01690899820859926</v>
+        <v>0.01254337578740827</v>
       </c>
       <c r="J20">
-        <v>0.2355212492843606</v>
+        <v>0.2815795323669334</v>
       </c>
       <c r="K20">
-        <v>1.178817199494631</v>
+        <v>0.7334843526804562</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2857494695360501</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2636104129928896</v>
       </c>
       <c r="N20">
-        <v>1.097584820524901</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9946715638478096</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.8878210797153088</v>
       </c>
       <c r="Q20">
-        <v>1.385062443600702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.926362505735419</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.540650223930697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.884348218348748</v>
+        <v>3.940851799221946</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0720393000584707</v>
+        <v>0.06896755722310388</v>
       </c>
       <c r="E21">
-        <v>2.072878395346464</v>
+        <v>1.504455560649888</v>
       </c>
       <c r="F21">
-        <v>0.6426815960564198</v>
+        <v>0.6674024935029763</v>
       </c>
       <c r="G21">
-        <v>0.5080557150920981</v>
+        <v>0.675147975931182</v>
       </c>
       <c r="H21">
-        <v>0.000279349574918597</v>
+        <v>0.000135281801810383</v>
       </c>
       <c r="I21">
-        <v>0.01392860191491785</v>
+        <v>0.01050982005684009</v>
       </c>
       <c r="J21">
-        <v>0.2606382216179384</v>
+        <v>0.2032273034331098</v>
       </c>
       <c r="K21">
-        <v>1.245805420083158</v>
+        <v>0.7804087726898459</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3191355014326476</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2668816949136428</v>
       </c>
       <c r="N21">
-        <v>1.244221078096871</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.120847254368343</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.007529745729073</v>
       </c>
       <c r="Q21">
-        <v>1.57720991711389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.04378445687491</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.661264451686066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.163112841529255</v>
+        <v>4.223973714477722</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.07712770110757106</v>
+        <v>0.07595436145363976</v>
       </c>
       <c r="E22">
-        <v>2.187710651977909</v>
+        <v>1.578862535574686</v>
       </c>
       <c r="F22">
-        <v>0.6929497887391989</v>
+        <v>0.7015450033283201</v>
       </c>
       <c r="G22">
-        <v>0.550431167608096</v>
+        <v>0.7838935872023853</v>
       </c>
       <c r="H22">
-        <v>5.06346864709295E-05</v>
+        <v>1.038443556833357E-05</v>
       </c>
       <c r="I22">
-        <v>0.01186301312366211</v>
+        <v>0.008940855149912608</v>
       </c>
       <c r="J22">
-        <v>0.2768131944650065</v>
+        <v>0.1559072161790098</v>
       </c>
       <c r="K22">
-        <v>1.297835032469209</v>
+        <v>0.8160384937730782</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3433089316127393</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2708132266158998</v>
       </c>
       <c r="N22">
-        <v>1.327988057698661</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.199314340513027</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.073215925279214</v>
       </c>
       <c r="Q22">
-        <v>1.701151928247299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.116033950983748</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.732805130863909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.015227482379487</v>
+        <v>4.073416774273198</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07427835023089813</v>
+        <v>0.07177227033654532</v>
       </c>
       <c r="E23">
-        <v>2.116162156114356</v>
+        <v>1.534574107796701</v>
       </c>
       <c r="F23">
-        <v>0.6670326550064658</v>
+        <v>0.6868286248706426</v>
       </c>
       <c r="G23">
-        <v>0.5287401390538093</v>
+        <v>0.7170245982885035</v>
       </c>
       <c r="H23">
-        <v>0.0001510385984943019</v>
+        <v>5.90699253887883E-05</v>
       </c>
       <c r="I23">
-        <v>0.01260328333454108</v>
+        <v>0.009352371459502073</v>
       </c>
       <c r="J23">
-        <v>0.2686767082355743</v>
+        <v>0.1899415885920348</v>
       </c>
       <c r="K23">
-        <v>1.260279636921496</v>
+        <v>0.7902574125638893</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3277986713255672</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2662294111899257</v>
       </c>
       <c r="N23">
-        <v>1.278872834086457</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.155987713527665</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.035927782681512</v>
       </c>
       <c r="Q23">
-        <v>1.638002329120212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.076697200183709</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.706064027053486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.453441295198559</v>
+        <v>3.502592060337349</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06373797193753461</v>
+        <v>0.05828212913304753</v>
       </c>
       <c r="E24">
-        <v>1.862798484058416</v>
+        <v>1.36598621728254</v>
       </c>
       <c r="F24">
-        <v>0.5694295270256049</v>
+        <v>0.6154254611394521</v>
       </c>
       <c r="G24">
-        <v>0.4469276618530387</v>
+        <v>0.5253817837214001</v>
       </c>
       <c r="H24">
-        <v>0.001027609874985402</v>
+        <v>0.0006257099664553345</v>
       </c>
       <c r="I24">
-        <v>0.0163811883125442</v>
+        <v>0.01188767850877426</v>
       </c>
       <c r="J24">
-        <v>0.2380905792625612</v>
+        <v>0.2846559029237454</v>
       </c>
       <c r="K24">
-        <v>1.137134616123916</v>
+        <v>0.7107125785578674</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2772281984426215</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2551056227046686</v>
       </c>
       <c r="N24">
-        <v>1.100515861936145</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9943671908435689</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.8947132818192642</v>
       </c>
       <c r="Q24">
-        <v>1.400019000673097</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.9275766246991566</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.553582685432673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.84655007409458</v>
+        <v>2.887434684373318</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05242568144637261</v>
+        <v>0.04747218860671154</v>
       </c>
       <c r="E25">
-        <v>1.591029393747974</v>
+        <v>1.16227127421908</v>
       </c>
       <c r="F25">
-        <v>0.468197029295645</v>
+        <v>0.5115656010633387</v>
       </c>
       <c r="G25">
-        <v>0.3623113543167875</v>
+        <v>0.4204890714771636</v>
       </c>
       <c r="H25">
-        <v>0.00291773775750398</v>
+        <v>0.002008203718718987</v>
       </c>
       <c r="I25">
-        <v>0.02131779951542256</v>
+        <v>0.01531698059934605</v>
       </c>
       <c r="J25">
-        <v>0.2072087765484127</v>
+        <v>0.2654322350623346</v>
       </c>
       <c r="K25">
-        <v>1.010558920160051</v>
+        <v>0.6405901108296703</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2310045787964228</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2483935203692411</v>
       </c>
       <c r="N25">
-        <v>0.9089002760100016</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8201160029893089</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.7331359385306087</v>
       </c>
       <c r="Q25">
-        <v>1.155398528679655</v>
+        <v>0.7631466158185916</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.300273595276167</v>
       </c>
     </row>
   </sheetData>
